--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_25_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_25_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>549174.3582197346</v>
+        <v>435651.4581480708</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21138955.59783732</v>
+        <v>16418600.27484853</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3512673.600440206</v>
+        <v>5692508.664038857</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>57.96571614961792</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="Y12" t="n">
         <v>81.61928733384123</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H14" t="n">
-        <v>56.70400066026082</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>67.27654854321852</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1730,16 +1730,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R15" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,52 +1852,52 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="F17" t="n">
-        <v>56.70400066026079</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>81.61928733384123</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>92.66494928910222</v>
-      </c>
-      <c r="H17" t="n">
-        <v>92.66494928910222</v>
-      </c>
-      <c r="I17" t="n">
-        <v>92.66494928910222</v>
-      </c>
-      <c r="J17" t="n">
-        <v>24.91528667358037</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1934,58 +1934,58 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>24.08003719411375</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>81.61928733384123</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>92.66494928910222</v>
       </c>
-      <c r="H18" t="n">
+      <c r="W18" t="n">
         <v>92.66494928910222</v>
-      </c>
-      <c r="I18" t="n">
-        <v>65.63472101605001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>84.56947841277972</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,64 +2092,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>81.61928733384117</v>
+        <v>57.96571614961792</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>23.65357118422324</v>
+      </c>
+      <c r="R20" t="n">
         <v>92.66494928910222</v>
       </c>
-      <c r="H20" t="n">
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>92.66494928910222</v>
-      </c>
-      <c r="I20" t="n">
-        <v>92.66494928910222</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>81.6192873338412</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.63472101605001</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>15.9845663177912</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>92.66494928910222</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>92.66494928910222</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="X21" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>69.17705022825315</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,37 +2335,37 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>98.8247775506934</v>
-      </c>
-      <c r="I23" t="n">
-        <v>44.26176355467279</v>
-      </c>
-      <c r="J23" t="n">
-        <v>24.91528667358037</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>98.8247775506934</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,70 +2399,70 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.475385653870981</v>
+      </c>
+      <c r="R24" t="n">
+        <v>84.56947841277972</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="D24" t="n">
+      <c r="W24" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="X24" t="n">
         <v>98.8247775506934</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>87.04486406665072</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="V26" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="W26" t="n">
-        <v>98.8247775506934</v>
+        <v>69.17705022825315</v>
       </c>
       <c r="X26" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>69.17705022825315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,64 +2636,64 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>87.04486406665072</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="I27" t="n">
-        <v>65.63472101605001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
       <c r="U27" t="n">
-        <v>21.41014305060069</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="V27" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>69.17705022825315</v>
       </c>
       <c r="F29" t="n">
         <v>98.8247775506934</v>
@@ -2812,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>20.60819237044952</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2882,58 +2882,58 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.818141913346696</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="H30" t="n">
+      <c r="U30" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="I30" t="n">
-        <v>65.63472101605001</v>
-      </c>
-      <c r="J30" t="n">
-        <v>33.84730027516773</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>84.56947841277972</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>87.04486406665072</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3034,58 +3034,58 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>69.17705022825315</v>
+      </c>
+      <c r="G32" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>98.8247775506934</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>44.26176355467279</v>
-      </c>
-      <c r="J32" t="n">
-        <v>24.91528667358037</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>72.70212527602803</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="E33" t="n">
+      <c r="G33" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="F33" t="n">
-        <v>87.04486406665072</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="T35" t="n">
-        <v>56.70400066026079</v>
+        <v>57.96571614961793</v>
       </c>
       <c r="U35" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,67 +3347,67 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>81.61928733384123</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>92.66494928910222</v>
       </c>
-      <c r="E36" t="n">
+      <c r="W36" t="n">
         <v>92.66494928910222</v>
-      </c>
-      <c r="F36" t="n">
-        <v>81.6192873338412</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>92.66494928910222</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>57.96571614961792</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>92.66494928910222</v>
@@ -3556,10 +3556,10 @@
         <v>92.66494928910222</v>
       </c>
       <c r="T38" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>81.61928733384114</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
         <v>92.66494928910222</v>
       </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
       <c r="U39" t="n">
-        <v>92.66494928910222</v>
+        <v>67.27654854321852</v>
       </c>
       <c r="V39" t="n">
-        <v>67.2765485432185</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>92.66494928910222</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>57.96571614961793</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R41" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="U41" t="n">
-        <v>57.96571614961795</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="V41" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>81.6192873338412</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="T42" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="U42" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>92.66494928910222</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>57.96571614961795</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>75.37201941954106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.84730027516773</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4100,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>92.66494928910222</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>47.77198705867345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.413195943128178</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="C11" t="n">
-        <v>7.413195943128178</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="D11" t="n">
-        <v>7.413195943128178</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="E11" t="n">
-        <v>7.413195943128178</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="F11" t="n">
-        <v>7.413195943128178</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="G11" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="H11" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="I11" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J11" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K11" t="n">
         <v>21.18357364821452</v>
@@ -5056,37 +5056,37 @@
         <v>258.6453063018261</v>
       </c>
       <c r="O11" t="n">
-        <v>337.6943058037293</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P11" t="n">
         <v>370.6597971564088</v>
       </c>
       <c r="Q11" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R11" t="n">
-        <v>253.1663421328478</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S11" t="n">
-        <v>159.5653832549667</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T11" t="n">
-        <v>65.96442437708568</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U11" t="n">
-        <v>7.413195943128178</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V11" t="n">
-        <v>7.413195943128178</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W11" t="n">
-        <v>7.413195943128178</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="X11" t="n">
-        <v>7.413195943128178</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.413195943128178</v>
+        <v>194.6151136988902</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C12" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D12" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E12" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F12" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G12" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H12" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I12" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J12" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K12" t="n">
-        <v>7.413195943128178</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L12" t="n">
-        <v>43.08143125983014</v>
+        <v>43.08143125983008</v>
       </c>
       <c r="M12" t="n">
         <v>134.8197310560413</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5580308522526</v>
+        <v>226.5580308522524</v>
       </c>
       <c r="O12" t="n">
-        <v>317.2247932514006</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P12" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q12" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R12" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S12" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T12" t="n">
-        <v>370.6597971564089</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U12" t="n">
-        <v>370.6597971564089</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V12" t="n">
-        <v>370.6597971564089</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="W12" t="n">
-        <v>370.6597971564089</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="X12" t="n">
-        <v>370.6597971564089</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="Y12" t="n">
-        <v>288.2160725767713</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C14" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D14" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E14" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F14" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G14" t="n">
-        <v>89.85692052276575</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H14" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I14" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J14" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K14" t="n">
-        <v>21.18357364821453</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L14" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M14" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N14" t="n">
-        <v>258.6453063018262</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O14" t="n">
-        <v>337.6943058037293</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P14" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q14" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R14" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S14" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T14" t="n">
-        <v>370.6597971564089</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U14" t="n">
-        <v>370.6597971564089</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="V14" t="n">
-        <v>370.6597971564089</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W14" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X14" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y14" t="n">
-        <v>183.4578794006468</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="C15" t="n">
-        <v>7.413195943128178</v>
+        <v>168.9702644606239</v>
       </c>
       <c r="D15" t="n">
-        <v>7.413195943128178</v>
+        <v>168.9702644606239</v>
       </c>
       <c r="E15" t="n">
-        <v>7.413195943128178</v>
+        <v>168.9702644606239</v>
       </c>
       <c r="F15" t="n">
-        <v>7.413195943128178</v>
+        <v>75.36930558274285</v>
       </c>
       <c r="G15" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H15" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I15" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J15" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K15" t="n">
         <v>28.29609765201163</v>
@@ -5369,40 +5369,40 @@
         <v>194.4365770611079</v>
       </c>
       <c r="N15" t="n">
-        <v>226.5580308522526</v>
+        <v>279.9930347572608</v>
       </c>
       <c r="O15" t="n">
-        <v>317.2247932514006</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="P15" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q15" t="n">
-        <v>370.6597971564089</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R15" t="n">
-        <v>288.2160725767713</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="S15" t="n">
-        <v>194.6151136988902</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="T15" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="U15" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="W15" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="X15" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="Y15" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>370.6597971564088</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C17" t="n">
-        <v>370.6597971564088</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D17" t="n">
-        <v>370.6597971564088</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E17" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F17" t="n">
-        <v>313.3830288127111</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G17" t="n">
-        <v>219.78206993483</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H17" t="n">
-        <v>126.181111056949</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I17" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J17" t="n">
         <v>7.413195943128178</v>
       </c>
       <c r="K17" t="n">
-        <v>21.18357364821452</v>
+        <v>21.18357364821453</v>
       </c>
       <c r="L17" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940376</v>
       </c>
       <c r="M17" t="n">
-        <v>166.9070065056149</v>
+        <v>166.907006505615</v>
       </c>
       <c r="N17" t="n">
-        <v>258.6453063018261</v>
+        <v>258.6453063018262</v>
       </c>
       <c r="O17" t="n">
         <v>337.6943058037293</v>
       </c>
       <c r="P17" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="Q17" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="R17" t="n">
-        <v>370.6597971564088</v>
+        <v>288.2160725767713</v>
       </c>
       <c r="S17" t="n">
-        <v>370.6597971564088</v>
+        <v>288.2160725767713</v>
       </c>
       <c r="T17" t="n">
-        <v>370.6597971564088</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="U17" t="n">
-        <v>370.6597971564088</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="V17" t="n">
-        <v>370.6597971564088</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W17" t="n">
-        <v>370.6597971564088</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="X17" t="n">
-        <v>370.6597971564088</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="Y17" t="n">
-        <v>370.6597971564088</v>
+        <v>194.6151136988902</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>285.2360815879446</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C18" t="n">
-        <v>285.2360815879446</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D18" t="n">
-        <v>285.2360815879446</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E18" t="n">
-        <v>285.2360815879446</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F18" t="n">
-        <v>260.9128116949004</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G18" t="n">
-        <v>167.3118528170193</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H18" t="n">
-        <v>73.71089393913829</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I18" t="n">
         <v>7.413195943128178</v>
@@ -5600,7 +5600,7 @@
         <v>28.29609765201163</v>
       </c>
       <c r="L18" t="n">
-        <v>43.08143125983014</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M18" t="n">
         <v>134.8197310560413</v>
@@ -5618,28 +5618,28 @@
         <v>370.6597971564089</v>
       </c>
       <c r="R18" t="n">
-        <v>285.2360815879446</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="S18" t="n">
-        <v>285.2360815879446</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="T18" t="n">
-        <v>285.2360815879446</v>
+        <v>288.2160725767713</v>
       </c>
       <c r="U18" t="n">
-        <v>285.2360815879446</v>
+        <v>288.2160725767713</v>
       </c>
       <c r="V18" t="n">
-        <v>285.2360815879446</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W18" t="n">
-        <v>285.2360815879446</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X18" t="n">
-        <v>285.2360815879446</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y18" t="n">
-        <v>285.2360815879446</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="19">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>370.6597971564088</v>
+        <v>65.96442437708568</v>
       </c>
       <c r="C20" t="n">
-        <v>370.6597971564088</v>
+        <v>65.96442437708568</v>
       </c>
       <c r="D20" t="n">
-        <v>370.6597971564088</v>
+        <v>65.96442437708568</v>
       </c>
       <c r="E20" t="n">
-        <v>370.6597971564088</v>
+        <v>65.96442437708568</v>
       </c>
       <c r="F20" t="n">
-        <v>288.2160725767713</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G20" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H20" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I20" t="n">
         <v>7.413195943128178</v>
@@ -5755,49 +5755,49 @@
         <v>7.413195943128178</v>
       </c>
       <c r="K20" t="n">
-        <v>21.18357364821452</v>
+        <v>21.18357364821453</v>
       </c>
       <c r="L20" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940376</v>
       </c>
       <c r="M20" t="n">
-        <v>166.9070065056149</v>
+        <v>166.907006505615</v>
       </c>
       <c r="N20" t="n">
-        <v>258.6453063018261</v>
+        <v>258.6453063018262</v>
       </c>
       <c r="O20" t="n">
         <v>337.6943058037293</v>
       </c>
       <c r="P20" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="Q20" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="R20" t="n">
-        <v>370.6597971564088</v>
+        <v>253.1663421328478</v>
       </c>
       <c r="S20" t="n">
-        <v>370.6597971564088</v>
+        <v>253.1663421328478</v>
       </c>
       <c r="T20" t="n">
-        <v>370.6597971564088</v>
+        <v>253.1663421328478</v>
       </c>
       <c r="U20" t="n">
-        <v>370.6597971564088</v>
+        <v>253.1663421328478</v>
       </c>
       <c r="V20" t="n">
-        <v>370.6597971564088</v>
+        <v>253.1663421328478</v>
       </c>
       <c r="W20" t="n">
-        <v>370.6597971564088</v>
+        <v>253.1663421328478</v>
       </c>
       <c r="X20" t="n">
-        <v>370.6597971564088</v>
+        <v>253.1663421328478</v>
       </c>
       <c r="Y20" t="n">
-        <v>370.6597971564088</v>
+        <v>159.5653832549667</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>73.71089393913829</v>
+        <v>89.85692052276575</v>
       </c>
       <c r="C21" t="n">
-        <v>73.71089393913829</v>
+        <v>89.85692052276575</v>
       </c>
       <c r="D21" t="n">
-        <v>73.71089393913829</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="E21" t="n">
-        <v>73.71089393913829</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F21" t="n">
-        <v>73.71089393913829</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G21" t="n">
-        <v>73.71089393913829</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H21" t="n">
-        <v>73.71089393913829</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I21" t="n">
         <v>7.413195943128178</v>
@@ -5837,7 +5837,7 @@
         <v>28.29609765201163</v>
       </c>
       <c r="L21" t="n">
-        <v>43.08143125983014</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M21" t="n">
         <v>134.8197310560413</v>
@@ -5855,28 +5855,28 @@
         <v>370.6597971564089</v>
       </c>
       <c r="R21" t="n">
-        <v>354.5137705727814</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="S21" t="n">
-        <v>354.5137705727814</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="T21" t="n">
-        <v>260.9128116949004</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="U21" t="n">
-        <v>260.9128116949004</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V21" t="n">
-        <v>167.3118528170193</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W21" t="n">
-        <v>167.3118528170193</v>
+        <v>89.85692052276575</v>
       </c>
       <c r="X21" t="n">
-        <v>73.71089393913829</v>
+        <v>89.85692052276575</v>
       </c>
       <c r="Y21" t="n">
-        <v>73.71089393913829</v>
+        <v>89.85692052276575</v>
       </c>
     </row>
     <row r="22">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>177.6047981423853</v>
+        <v>77.7817905154223</v>
       </c>
       <c r="C23" t="n">
-        <v>177.6047981423853</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="D23" t="n">
-        <v>177.6047981423853</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="E23" t="n">
-        <v>177.6047981423853</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="F23" t="n">
-        <v>177.6047981423853</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="G23" t="n">
-        <v>177.6047981423853</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="H23" t="n">
-        <v>77.7817905154223</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="I23" t="n">
-        <v>33.07293843999524</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="J23" t="n">
         <v>7.905982204055472</v>
@@ -6013,22 +6013,22 @@
         <v>377.2508133963114</v>
       </c>
       <c r="R23" t="n">
-        <v>377.2508133963114</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="S23" t="n">
-        <v>277.4278057693484</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="T23" t="n">
-        <v>277.4278057693484</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="U23" t="n">
-        <v>277.4278057693484</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="V23" t="n">
-        <v>277.4278057693484</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="W23" t="n">
-        <v>277.4278057693484</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="X23" t="n">
         <v>177.6047981423853</v>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>207.5519974579815</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="C24" t="n">
-        <v>107.7289898310185</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="D24" t="n">
         <v>7.905982204055472</v>
@@ -6077,7 +6077,7 @@
         <v>103.191063525824</v>
       </c>
       <c r="M24" t="n">
-        <v>201.0275933010105</v>
+        <v>153.3608141234308</v>
       </c>
       <c r="N24" t="n">
         <v>251.1973438986172</v>
@@ -6089,31 +6089,31 @@
         <v>395.2991102027736</v>
       </c>
       <c r="Q24" t="n">
-        <v>395.2991102027736</v>
+        <v>392.798720653409</v>
       </c>
       <c r="R24" t="n">
-        <v>395.2991102027736</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="S24" t="n">
-        <v>395.2991102027736</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="T24" t="n">
-        <v>395.2991102027736</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="U24" t="n">
-        <v>295.4761025758106</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="V24" t="n">
-        <v>295.4761025758106</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="W24" t="n">
-        <v>295.4761025758106</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="X24" t="n">
-        <v>207.5519974579815</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="Y24" t="n">
-        <v>207.5519974579815</v>
+        <v>7.905982204055472</v>
       </c>
     </row>
     <row r="25">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="C26" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="D26" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="E26" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="F26" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G26" t="n">
         <v>7.905982204055472</v>
@@ -6259,19 +6259,19 @@
         <v>377.2508133963114</v>
       </c>
       <c r="U26" t="n">
-        <v>377.2508133963114</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="V26" t="n">
-        <v>277.4278057693484</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="W26" t="n">
-        <v>177.6047981423853</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="X26" t="n">
-        <v>77.7817905154223</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>273.8496954539917</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="C27" t="n">
-        <v>174.0266878270286</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="D27" t="n">
-        <v>174.0266878270286</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="E27" t="n">
-        <v>174.0266878270286</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="F27" t="n">
-        <v>174.0266878270286</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G27" t="n">
-        <v>174.0266878270286</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="H27" t="n">
-        <v>74.20368020006559</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="I27" t="n">
         <v>7.905982204055472</v>
@@ -6308,13 +6308,13 @@
         <v>7.905982204055472</v>
       </c>
       <c r="K27" t="n">
-        <v>7.905982204055472</v>
+        <v>28.78888391293893</v>
       </c>
       <c r="L27" t="n">
-        <v>82.30816181694057</v>
+        <v>103.191063525824</v>
       </c>
       <c r="M27" t="n">
-        <v>180.144691592127</v>
+        <v>153.3608141234308</v>
       </c>
       <c r="N27" t="n">
         <v>251.1973438986172</v>
@@ -6335,22 +6335,22 @@
         <v>395.2991102027736</v>
       </c>
       <c r="T27" t="n">
-        <v>395.2991102027736</v>
+        <v>295.4761025758106</v>
       </c>
       <c r="U27" t="n">
-        <v>373.6727030809547</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="V27" t="n">
-        <v>273.8496954539917</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="W27" t="n">
-        <v>273.8496954539917</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="X27" t="n">
-        <v>273.8496954539917</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="Y27" t="n">
-        <v>273.8496954539917</v>
+        <v>195.6530949488475</v>
       </c>
     </row>
     <row r="28">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>353.3583172506313</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="C29" t="n">
-        <v>353.3583172506313</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="D29" t="n">
-        <v>253.5353096236683</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="E29" t="n">
-        <v>253.5353096236683</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="F29" t="n">
-        <v>153.7123019967053</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G29" t="n">
-        <v>53.88929436974223</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="H29" t="n">
-        <v>53.88929436974223</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="I29" t="n">
-        <v>33.07293843999524</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="J29" t="n">
         <v>7.905982204055472</v>
@@ -6484,31 +6484,31 @@
         <v>377.2508133963114</v>
       </c>
       <c r="Q29" t="n">
-        <v>353.3583172506313</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="R29" t="n">
-        <v>353.3583172506313</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="S29" t="n">
-        <v>353.3583172506313</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="T29" t="n">
-        <v>353.3583172506313</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="U29" t="n">
-        <v>353.3583172506313</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="V29" t="n">
-        <v>353.3583172506313</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="W29" t="n">
-        <v>353.3583172506313</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="X29" t="n">
-        <v>353.3583172506313</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="Y29" t="n">
-        <v>353.3583172506313</v>
+        <v>277.4278057693484</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>309.8753946343093</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="C30" t="n">
-        <v>309.8753946343093</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="D30" t="n">
-        <v>309.8753946343093</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="E30" t="n">
-        <v>309.8753946343093</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="F30" t="n">
-        <v>308.0388876511308</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="G30" t="n">
-        <v>208.2158800241677</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="H30" t="n">
-        <v>108.3928723972047</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="I30" t="n">
-        <v>42.09517440119459</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="J30" t="n">
         <v>7.905982204055472</v>
       </c>
       <c r="K30" t="n">
-        <v>7.905982204055472</v>
+        <v>28.78888391293893</v>
       </c>
       <c r="L30" t="n">
-        <v>82.30816181694057</v>
+        <v>103.191063525824</v>
       </c>
       <c r="M30" t="n">
-        <v>153.3608141234308</v>
+        <v>201.0275933010105</v>
       </c>
       <c r="N30" t="n">
         <v>251.1973438986172</v>
@@ -6566,28 +6566,28 @@
         <v>395.2991102027736</v>
       </c>
       <c r="R30" t="n">
-        <v>309.8753946343093</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="S30" t="n">
-        <v>309.8753946343093</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="T30" t="n">
-        <v>309.8753946343093</v>
+        <v>295.4761025758106</v>
       </c>
       <c r="U30" t="n">
-        <v>309.8753946343093</v>
+        <v>195.6530949488475</v>
       </c>
       <c r="V30" t="n">
-        <v>309.8753946343093</v>
+        <v>95.83008732188449</v>
       </c>
       <c r="W30" t="n">
-        <v>309.8753946343093</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="X30" t="n">
-        <v>309.8753946343093</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="Y30" t="n">
-        <v>309.8753946343093</v>
+        <v>7.905982204055472</v>
       </c>
     </row>
     <row r="31">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>277.4278057693484</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="C32" t="n">
-        <v>277.4278057693484</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="D32" t="n">
         <v>177.6047981423853</v>
       </c>
       <c r="E32" t="n">
-        <v>77.7817905154223</v>
+        <v>177.6047981423853</v>
       </c>
       <c r="F32" t="n">
-        <v>77.7817905154223</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G32" t="n">
-        <v>77.7817905154223</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="H32" t="n">
-        <v>77.7817905154223</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="I32" t="n">
-        <v>33.07293843999524</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="J32" t="n">
         <v>7.905982204055472</v>
@@ -6733,19 +6733,19 @@
         <v>377.2508133963114</v>
       </c>
       <c r="U32" t="n">
-        <v>377.2508133963114</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="V32" t="n">
-        <v>377.2508133963114</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="W32" t="n">
-        <v>377.2508133963114</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="X32" t="n">
-        <v>377.2508133963114</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="Y32" t="n">
-        <v>377.2508133963114</v>
+        <v>277.4278057693484</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>295.4761025758106</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="C33" t="n">
-        <v>295.4761025758106</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="D33" t="n">
-        <v>195.6530949488475</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="E33" t="n">
-        <v>95.83008732188449</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="F33" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="G33" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="H33" t="n">
         <v>7.905982204055472</v>
@@ -6785,7 +6785,7 @@
         <v>7.905982204055472</v>
       </c>
       <c r="L33" t="n">
-        <v>82.30816181694057</v>
+        <v>55.52428434824431</v>
       </c>
       <c r="M33" t="n">
         <v>153.3608141234308</v>
@@ -6800,31 +6800,31 @@
         <v>395.2991102027736</v>
       </c>
       <c r="Q33" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="R33" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="S33" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="T33" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="U33" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="V33" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="W33" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="X33" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="Y33" t="n">
-        <v>295.4761025758106</v>
+        <v>380.8114952627507</v>
       </c>
     </row>
     <row r="34">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.58015217906794</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C35" t="n">
-        <v>32.58015217906794</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D35" t="n">
-        <v>32.58015217906794</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E35" t="n">
-        <v>32.58015217906794</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F35" t="n">
-        <v>32.58015217906794</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G35" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H35" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I35" t="n">
-        <v>32.58015217906794</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J35" t="n">
         <v>7.413195943128178</v>
       </c>
       <c r="K35" t="n">
-        <v>21.18357364821452</v>
+        <v>21.18357364821453</v>
       </c>
       <c r="L35" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940376</v>
       </c>
       <c r="M35" t="n">
-        <v>166.9070065056149</v>
+        <v>166.907006505615</v>
       </c>
       <c r="N35" t="n">
-        <v>258.6453063018261</v>
+        <v>258.6453063018262</v>
       </c>
       <c r="O35" t="n">
         <v>337.6943058037293</v>
       </c>
       <c r="P35" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="Q35" t="n">
-        <v>370.6597971564088</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="R35" t="n">
-        <v>370.6597971564088</v>
+        <v>253.1663421328478</v>
       </c>
       <c r="S35" t="n">
-        <v>370.6597971564088</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="T35" t="n">
-        <v>313.3830288127111</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="U35" t="n">
-        <v>219.78206993483</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="V35" t="n">
-        <v>126.181111056949</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W35" t="n">
-        <v>32.58015217906794</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X35" t="n">
-        <v>32.58015217906794</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y35" t="n">
-        <v>32.58015217906794</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C36" t="n">
-        <v>277.0588382785278</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="D36" t="n">
-        <v>183.4578794006468</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="E36" t="n">
-        <v>89.85692052276575</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F36" t="n">
         <v>7.413195943128178</v>
@@ -7043,25 +7043,25 @@
         <v>370.6597971564089</v>
       </c>
       <c r="S36" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="T36" t="n">
-        <v>277.0588382785278</v>
+        <v>288.2160725767713</v>
       </c>
       <c r="U36" t="n">
-        <v>277.0588382785278</v>
+        <v>288.2160725767713</v>
       </c>
       <c r="V36" t="n">
-        <v>277.0588382785278</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W36" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X36" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y36" t="n">
-        <v>277.0588382785278</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="37">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C38" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D38" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E38" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F38" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G38" t="n">
         <v>7.413195943128178</v>
@@ -7195,31 +7195,31 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q38" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R38" t="n">
-        <v>253.1663421328478</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="S38" t="n">
-        <v>159.5653832549667</v>
+        <v>183.4578794006467</v>
       </c>
       <c r="T38" t="n">
-        <v>65.96442437708568</v>
+        <v>183.4578794006467</v>
       </c>
       <c r="U38" t="n">
-        <v>65.96442437708568</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="V38" t="n">
-        <v>65.96442437708568</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W38" t="n">
-        <v>65.96442437708568</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X38" t="n">
-        <v>65.96442437708568</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y38" t="n">
-        <v>65.96442437708568</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C39" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D39" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E39" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F39" t="n">
         <v>7.413195943128178</v>
@@ -7256,16 +7256,16 @@
         <v>7.413195943128178</v>
       </c>
       <c r="K39" t="n">
-        <v>28.29609765201163</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="L39" t="n">
-        <v>102.6982772648967</v>
+        <v>43.08143125983014</v>
       </c>
       <c r="M39" t="n">
-        <v>194.4365770611079</v>
+        <v>134.8197310560413</v>
       </c>
       <c r="N39" t="n">
-        <v>286.1748768573191</v>
+        <v>226.5580308522526</v>
       </c>
       <c r="O39" t="n">
         <v>317.2247932514006</v>
@@ -7280,25 +7280,25 @@
         <v>356.172182216386</v>
       </c>
       <c r="S39" t="n">
-        <v>262.5712233385049</v>
+        <v>356.172182216386</v>
       </c>
       <c r="T39" t="n">
         <v>262.5712233385049</v>
       </c>
       <c r="U39" t="n">
-        <v>168.9702644606239</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="V39" t="n">
+        <v>194.6151136988902</v>
+      </c>
+      <c r="W39" t="n">
         <v>101.0141548210092</v>
       </c>
-      <c r="W39" t="n">
-        <v>7.413195943128178</v>
-      </c>
       <c r="X39" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="40">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.413195943128176</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="C41" t="n">
-        <v>7.413195943128176</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="D41" t="n">
-        <v>7.413195943128176</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="E41" t="n">
-        <v>7.413195943128176</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="F41" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G41" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H41" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I41" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J41" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="K41" t="n">
-        <v>21.18357364821451</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L41" t="n">
-        <v>75.16870670940374</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M41" t="n">
-        <v>166.9070065056148</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N41" t="n">
         <v>258.6453063018261</v>
       </c>
       <c r="O41" t="n">
-        <v>337.6943058037292</v>
+        <v>337.6943058037293</v>
       </c>
       <c r="P41" t="n">
         <v>370.6597971564088</v>
       </c>
       <c r="Q41" t="n">
-        <v>346.7673010107287</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="R41" t="n">
-        <v>253.1663421328477</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="S41" t="n">
+        <v>346.7673010107288</v>
+      </c>
+      <c r="T41" t="n">
+        <v>253.1663421328478</v>
+      </c>
+      <c r="U41" t="n">
         <v>159.5653832549667</v>
       </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
         <v>159.5653832549667</v>
       </c>
-      <c r="U41" t="n">
-        <v>101.0141548210092</v>
-      </c>
-      <c r="V41" t="n">
-        <v>7.413195943128176</v>
-      </c>
       <c r="W41" t="n">
-        <v>7.413195943128176</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="X41" t="n">
-        <v>7.413195943128176</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.413195943128176</v>
+        <v>159.5653832549667</v>
       </c>
     </row>
     <row r="42">
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276575</v>
       </c>
       <c r="C42" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276575</v>
       </c>
       <c r="D42" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276575</v>
       </c>
       <c r="E42" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276575</v>
       </c>
       <c r="F42" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G42" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H42" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I42" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J42" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="K42" t="n">
-        <v>7.413195943128176</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="L42" t="n">
         <v>81.81537555601327</v>
       </c>
       <c r="M42" t="n">
-        <v>134.8197310560413</v>
+        <v>173.5536753522245</v>
       </c>
       <c r="N42" t="n">
-        <v>226.5580308522524</v>
+        <v>226.5580308522526</v>
       </c>
       <c r="O42" t="n">
-        <v>317.2247932514005</v>
+        <v>317.2247932514006</v>
       </c>
       <c r="P42" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="Q42" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="R42" t="n">
-        <v>370.6597971564088</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="S42" t="n">
         <v>277.0588382785278</v>
@@ -7523,19 +7523,19 @@
         <v>183.4578794006468</v>
       </c>
       <c r="U42" t="n">
-        <v>89.85692052276578</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V42" t="n">
-        <v>7.413195943128176</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W42" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276575</v>
       </c>
       <c r="X42" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276575</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.413195943128176</v>
+        <v>89.85692052276575</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="C43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="D43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="E43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="F43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="G43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="K43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="L43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="M43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="N43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="O43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="P43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="Q43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="R43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="S43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="T43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="U43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="V43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="W43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="X43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="Y43" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128178</v>
       </c>
     </row>
     <row r="44">
@@ -7633,16 +7633,16 @@
         <v>288.2160725767713</v>
       </c>
       <c r="E44" t="n">
+        <v>288.2160725767713</v>
+      </c>
+      <c r="F44" t="n">
+        <v>288.2160725767713</v>
+      </c>
+      <c r="G44" t="n">
         <v>194.6151136988902</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>101.0141548210092</v>
-      </c>
-      <c r="G44" t="n">
-        <v>7.413195943128178</v>
-      </c>
-      <c r="H44" t="n">
-        <v>7.413195943128178</v>
       </c>
       <c r="I44" t="n">
         <v>7.413195943128178</v>
@@ -7651,10 +7651,10 @@
         <v>7.413195943128178</v>
       </c>
       <c r="K44" t="n">
-        <v>21.18357364821453</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L44" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M44" t="n">
         <v>166.907006505615</v>
@@ -7672,13 +7672,13 @@
         <v>346.7673010107288</v>
       </c>
       <c r="R44" t="n">
-        <v>288.2160725767713</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="S44" t="n">
-        <v>288.2160725767713</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="T44" t="n">
-        <v>288.2160725767713</v>
+        <v>346.7673010107288</v>
       </c>
       <c r="U44" t="n">
         <v>288.2160725767713</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>228.8043058960294</v>
+        <v>83.54654889215955</v>
       </c>
       <c r="C45" t="n">
-        <v>228.8043058960294</v>
+        <v>83.54654889215955</v>
       </c>
       <c r="D45" t="n">
-        <v>135.2033470181483</v>
+        <v>83.54654889215955</v>
       </c>
       <c r="E45" t="n">
-        <v>41.6023881402673</v>
+        <v>83.54654889215955</v>
       </c>
       <c r="F45" t="n">
-        <v>41.6023881402673</v>
+        <v>83.54654889215955</v>
       </c>
       <c r="G45" t="n">
-        <v>41.6023881402673</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="H45" t="n">
-        <v>41.6023881402673</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="I45" t="n">
-        <v>41.6023881402673</v>
+        <v>7.413195943128178</v>
       </c>
       <c r="J45" t="n">
         <v>7.413195943128178</v>
       </c>
       <c r="K45" t="n">
-        <v>7.413195943128178</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L45" t="n">
-        <v>81.81537555601327</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M45" t="n">
-        <v>134.8197310560413</v>
+        <v>188.2547349610497</v>
       </c>
       <c r="N45" t="n">
-        <v>226.5580308522526</v>
+        <v>279.9930347572609</v>
       </c>
       <c r="O45" t="n">
-        <v>317.2247932514006</v>
+        <v>370.6597971564089</v>
       </c>
       <c r="P45" t="n">
         <v>370.6597971564089</v>
       </c>
       <c r="Q45" t="n">
-        <v>370.6597971564089</v>
+        <v>356.172182216386</v>
       </c>
       <c r="R45" t="n">
-        <v>370.6597971564089</v>
+        <v>270.7484666479216</v>
       </c>
       <c r="S45" t="n">
-        <v>370.6597971564089</v>
+        <v>270.7484666479216</v>
       </c>
       <c r="T45" t="n">
-        <v>277.0588382785278</v>
+        <v>177.1475077700406</v>
       </c>
       <c r="U45" t="n">
-        <v>277.0588382785278</v>
+        <v>83.54654889215955</v>
       </c>
       <c r="V45" t="n">
-        <v>277.0588382785278</v>
+        <v>83.54654889215955</v>
       </c>
       <c r="W45" t="n">
-        <v>277.0588382785278</v>
+        <v>83.54654889215955</v>
       </c>
       <c r="X45" t="n">
-        <v>277.0588382785278</v>
+        <v>83.54654889215955</v>
       </c>
       <c r="Y45" t="n">
-        <v>228.8043058960294</v>
+        <v>83.54654889215955</v>
       </c>
     </row>
     <row r="46">
@@ -22546,76 +22546,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0326130531137</v>
+        <v>14.03261305311364</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4671399690905</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.5094162483257</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.24567846819699</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>58.52525650912514</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.33124892954424</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.323491285356567</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.781580526956418</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16.09652847127759</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>48.58751046101386</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.1465368763354</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>135.80108207668</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0771084079325</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5358797316327</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2440429508748</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,34 +22625,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6639406644979</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6721659462977</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>76.12468037326958</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.63255053171129</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.10473742565406</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,34 +22667,34 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.205102146994079</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.23443014508368</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>103.4861490702065</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.0603357001177</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4255585092209</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8966731007964</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,76 +22704,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4212452503922</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1617183466295</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.3170164774018</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>86.71521999908968</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>62.82051361516493</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>50.18075261468672</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>49.61737280767916</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>40.5006877281008</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.92721197712444</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>68.82125337898734</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>103.7975391803443</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6760741181036</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.0876863536667</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5112709665425</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2879529505963</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,76 +22783,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>414.0170240739369</v>
+        <v>14.01702407393689</v>
       </c>
       <c r="H5" t="n">
-        <v>326.3074893360965</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>160.9084221286138</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>134.8218408634681</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>179.7218745449422</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.4676389752864</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2427958325407</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,34 +22862,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.6555998253092</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>105.5916109993956</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>75.83750674330533</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22904,34 +22904,34 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>102.9682853879423</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>158.905408270449</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>197.3919390740697</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8961243613761</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,76 +22941,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4142525710033</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.0995470698808</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>138.1067275372333</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>86.2208375662932</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.2119976362414</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>151.3616578248528</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>213.9658230228616</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.481393154608</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2875715317206</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,76 +23020,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>414.0170240739369</v>
+        <v>14.01702407393689</v>
       </c>
       <c r="H8" t="n">
-        <v>326.3074893360965</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>160.9084221286138</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>134.8218408634681</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>179.7218745449422</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.4676389752864</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2427958325407</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,34 +23099,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.6555998253092</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>105.5916109993956</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>75.83750674330534</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23141,34 +23141,34 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>102.9682853879423</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>158.905408270449</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>197.3919390740697</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8961243613761</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,76 +23178,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.4142525710033</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0995470698808</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>138.1067275372333</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>86.22083756629321</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97552059180407</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>103.2119976362414</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>151.3616578248528</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>213.9658230228616</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.481393154608</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2875715317206</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.4631744246258</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H11" t="n">
         <v>320.6353766150897</v>
       </c>
       <c r="I11" t="n">
-        <v>139.5561335235496</v>
+        <v>46.89118423444745</v>
       </c>
       <c r="J11" t="n">
         <v>24.91528667358037</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R11" t="n">
-        <v>7.366133540830845</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S11" t="n">
-        <v>74.43607637216454</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T11" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U11" t="n">
-        <v>193.2327717109778</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>246.1329711362937</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73.86823436076511</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>80.04354969921351</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>54.78011627553653</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23390,7 +23390,7 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T12" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100188</v>
       </c>
       <c r="U12" t="n">
         <v>225.8766285924705</v>
@@ -23399,10 +23399,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>113.1080359143753</v>
       </c>
       <c r="Y12" t="n">
         <v>124.0634084434631</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>290.0688923743784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.4631744246258</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H14" t="n">
-        <v>263.9313759548289</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I14" t="n">
         <v>139.5561335235496</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T14" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1984878605957</v>
+        <v>169.5792005267545</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.5729893669513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>80.04354969921351</v>
+        <v>80.04354969921354</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,10 +23585,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>52.40426310428168</v>
       </c>
       <c r="G15" t="n">
-        <v>136.3592641379443</v>
+        <v>69.08271559472578</v>
       </c>
       <c r="H15" t="n">
         <v>102.729632124056</v>
@@ -23618,16 +23618,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>2.950191078938488</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S15" t="n">
-        <v>60.7361535603371</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T15" t="n">
-        <v>103.5325490100187</v>
+        <v>103.5325490100188</v>
       </c>
       <c r="U15" t="n">
         <v>225.8766285924705</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0688923743784</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>289.2654207831596</v>
       </c>
       <c r="F17" t="n">
-        <v>350.1720450814506</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H17" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I17" t="n">
-        <v>46.89118423444742</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R17" t="n">
-        <v>100.0310828299331</v>
+        <v>18.41179549609184</v>
       </c>
       <c r="S17" t="n">
         <v>167.1010256612668</v>
       </c>
       <c r="T17" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U17" t="n">
         <v>251.1984878605957</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>120.9891751992701</v>
+        <v>52.40426310428165</v>
       </c>
       <c r="G18" t="n">
-        <v>43.69431484884208</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H18" t="n">
-        <v>10.06468283495374</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J18" t="n">
         <v>33.84730027516773</v>
@@ -23858,22 +23858,22 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S18" t="n">
         <v>153.4011028494393</v>
       </c>
       <c r="T18" t="n">
-        <v>196.197498299121</v>
+        <v>114.5782109652797</v>
       </c>
       <c r="U18" t="n">
         <v>225.8766285924705</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>140.135637860323</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0688923743784</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>325.2567584078703</v>
+        <v>348.9103295920935</v>
       </c>
       <c r="G20" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H20" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I20" t="n">
-        <v>46.89118423444742</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J20" t="n">
         <v>24.91528667358037</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>100.0310828299331</v>
+        <v>7.366133540830845</v>
       </c>
       <c r="S20" t="n">
         <v>167.1010256612668</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669513</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>65.82577823079755</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24068,7 +24068,7 @@
         <v>102.729632124056</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J21" t="n">
         <v>33.84730027516773</v>
@@ -24095,25 +24095,25 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R21" t="n">
-        <v>68.58491209498851</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S21" t="n">
         <v>153.4011028494393</v>
       </c>
       <c r="T21" t="n">
-        <v>103.5325490100187</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8766285924705</v>
+        <v>133.2116793033682</v>
       </c>
       <c r="V21" t="n">
         <v>140.135637860323</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X21" t="n">
-        <v>113.1080359143753</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>283.9090641127872</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>296.0958415427544</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24223,13 +24223,13 @@
         <v>413.4631744246258</v>
       </c>
       <c r="H23" t="n">
-        <v>221.8105990643963</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I23" t="n">
-        <v>95.29436996887685</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R23" t="n">
-        <v>100.0310828299331</v>
+        <v>1.206305279239672</v>
       </c>
       <c r="S23" t="n">
         <v>68.27624811057336</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>270.9063231277756</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,10 +24287,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>73.88372143762234</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>48.62028801394536</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.3427387906227</v>
+        <v>11.86735313675172</v>
       </c>
       <c r="R24" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>153.4011028494393</v>
@@ -24341,16 +24341,16 @@
         <v>196.197498299121</v>
       </c>
       <c r="U24" t="n">
-        <v>127.0518510417771</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>133.9758095987319</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>152.8702056102262</v>
       </c>
       <c r="X24" t="n">
-        <v>118.7281211368268</v>
+        <v>106.9482076527841</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4631744246258</v>
+        <v>314.6383968739324</v>
       </c>
       <c r="H26" t="n">
         <v>320.6353766150897</v>
@@ -24499,19 +24499,19 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1984878605957</v>
+        <v>152.3737103099023</v>
       </c>
       <c r="V26" t="n">
         <v>228.9274809194415</v>
       </c>
       <c r="W26" t="n">
-        <v>250.4161911667196</v>
+        <v>280.0639184891598</v>
       </c>
       <c r="X26" t="n">
-        <v>270.9063231277756</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>317.0608884278004</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>73.88372143762234</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>60.40020149798804</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.3592641379443</v>
+        <v>37.53448658725091</v>
       </c>
       <c r="H27" t="n">
-        <v>3.90485457336257</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J27" t="n">
         <v>33.84730027516773</v>
@@ -24575,13 +24575,13 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T27" t="n">
-        <v>196.197498299121</v>
+        <v>97.37272074842755</v>
       </c>
       <c r="U27" t="n">
-        <v>204.4664855418698</v>
+        <v>127.0518510417771</v>
       </c>
       <c r="V27" t="n">
-        <v>133.9758095987319</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24685,10 +24685,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>255.8582640699896</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>312.7533198440086</v>
       </c>
       <c r="F29" t="n">
         <v>308.051268191018</v>
@@ -24700,10 +24700,10 @@
         <v>320.6353766150897</v>
       </c>
       <c r="I29" t="n">
-        <v>118.9479411531001</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R29" t="n">
         <v>100.0310828299331</v>
@@ -24736,7 +24736,7 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1984878605957</v>
+        <v>152.3737103099023</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24770,19 +24770,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>143.2510704800372</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>37.53448658725091</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H30" t="n">
-        <v>3.90485457336257</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S30" t="n">
         <v>153.4011028494393</v>
       </c>
       <c r="T30" t="n">
-        <v>196.197498299121</v>
+        <v>97.37272074842755</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8766285924705</v>
+        <v>127.0518510417771</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>133.9758095987319</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>164.6501190942689</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24922,25 +24922,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>255.8582640699896</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>283.1055925215684</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>337.6989955134583</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4631744246258</v>
+        <v>314.6383968739324</v>
       </c>
       <c r="H32" t="n">
         <v>320.6353766150897</v>
       </c>
       <c r="I32" t="n">
-        <v>95.29436996887685</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1984878605957</v>
+        <v>152.3737103099023</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>93.83105837383931</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>48.62028801394536</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>58.82030290470755</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>58.02434832673316</v>
+        <v>46.24443484269048</v>
       </c>
       <c r="G33" t="n">
-        <v>136.3592641379443</v>
+        <v>37.53448658725091</v>
       </c>
       <c r="H33" t="n">
-        <v>102.729632124056</v>
+        <v>3.90485457336257</v>
       </c>
       <c r="I33" t="n">
         <v>65.63472101605001</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>84.56947841277972</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>106.857918226611</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4631744246258</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H35" t="n">
         <v>320.6353766150897</v>
@@ -25177,7 +25177,7 @@
         <v>139.5561335235496</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>100.0310828299331</v>
+        <v>7.366133540830845</v>
       </c>
       <c r="S35" t="n">
-        <v>167.1010256612668</v>
+        <v>74.43607637216454</v>
       </c>
       <c r="T35" t="n">
-        <v>158.3391614751665</v>
+        <v>157.0774459858094</v>
       </c>
       <c r="U35" t="n">
-        <v>158.5335385714935</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V35" t="n">
-        <v>235.0873091810327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>256.5760194283108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,16 +25235,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>80.04354969921351</v>
       </c>
       <c r="D36" t="n">
-        <v>54.78011627553653</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>64.98013116629872</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>63.44992505954268</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.3592641379443</v>
@@ -25283,19 +25283,19 @@
         <v>84.56947841277972</v>
       </c>
       <c r="S36" t="n">
-        <v>60.7361535603371</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T36" t="n">
-        <v>196.197498299121</v>
+        <v>114.5782109652797</v>
       </c>
       <c r="U36" t="n">
         <v>225.8766285924705</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>140.135637860323</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>324.7681255138626</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4631744246258</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H38" t="n">
         <v>320.6353766150897</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R38" t="n">
         <v>7.366133540830845</v>
@@ -25444,10 +25444,10 @@
         <v>74.43607637216454</v>
       </c>
       <c r="T38" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1984878605957</v>
+        <v>169.5792005267546</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25481,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>52.40426310428165</v>
       </c>
       <c r="G39" t="n">
         <v>136.3592641379443</v>
@@ -25520,16 +25520,16 @@
         <v>84.56947841277972</v>
       </c>
       <c r="S39" t="n">
-        <v>60.7361535603371</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T39" t="n">
-        <v>196.197498299121</v>
+        <v>103.5325490100187</v>
       </c>
       <c r="U39" t="n">
-        <v>133.2116793033682</v>
+        <v>158.6000800492519</v>
       </c>
       <c r="V39" t="n">
-        <v>165.5240386062068</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>159.0300338718174</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>348.9103295920935</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4631744246258</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H41" t="n">
         <v>320.6353766150897</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>7.366133540830873</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S41" t="n">
-        <v>74.43607637216456</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T41" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U41" t="n">
-        <v>193.2327717109778</v>
+        <v>158.5335385714935</v>
       </c>
       <c r="V41" t="n">
-        <v>235.0873091810327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25718,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>63.44992505954268</v>
       </c>
       <c r="G42" t="n">
         <v>136.3592641379443</v>
@@ -25757,19 +25757,19 @@
         <v>84.56947841277972</v>
       </c>
       <c r="S42" t="n">
-        <v>60.73615356033713</v>
+        <v>60.7361535603371</v>
       </c>
       <c r="T42" t="n">
-        <v>103.5325490100188</v>
+        <v>103.5325490100187</v>
       </c>
       <c r="U42" t="n">
-        <v>133.2116793033683</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V42" t="n">
-        <v>151.1812998155841</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25873,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>289.2654207831596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>314.2110964526092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>320.7982251355236</v>
       </c>
       <c r="H44" t="n">
-        <v>320.6353766150897</v>
+        <v>227.9704273259875</v>
       </c>
       <c r="I44" t="n">
-        <v>139.5561335235496</v>
+        <v>46.89118423444742</v>
       </c>
       <c r="J44" t="n">
         <v>24.91528667358037</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>42.06536668031512</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S44" t="n">
         <v>167.1010256612668</v>
@@ -25921,7 +25921,7 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1984878605957</v>
+        <v>193.2327717109778</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25949,16 +25949,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>54.78011627553653</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>64.98013116629872</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.3592641379443</v>
+        <v>60.98724471840325</v>
       </c>
       <c r="H45" t="n">
         <v>102.729632124056</v>
@@ -25967,7 +25967,7 @@
         <v>65.63472101605001</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,10 +25988,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>153.4011028494393</v>
@@ -26000,7 +26000,7 @@
         <v>103.5325490100187</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8766285924705</v>
+        <v>133.2116793033682</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.9107087186309</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>226375.677888611</v>
+        <v>983252.928749059</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>228807.7657212707</v>
+        <v>983254.4178083498</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>228807.7657212707</v>
+        <v>983254.4178083498</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>328407.507629226</v>
+        <v>328407.5076292258</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>328407.5076292258</v>
+        <v>328407.507629226</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>330200.4750575564</v>
+        <v>330200.4750575563</v>
       </c>
     </row>
     <row r="11">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103755.51903228</v>
+        <v>450657.5923433184</v>
       </c>
       <c r="C2" t="n">
-        <v>104870.2259555825</v>
+        <v>450658.2748288267</v>
       </c>
       <c r="D2" t="n">
-        <v>104870.2259555825</v>
+        <v>450658.2748288267</v>
       </c>
       <c r="E2" t="n">
-        <v>150520.1076633951</v>
+        <v>150520.1076633952</v>
       </c>
       <c r="F2" t="n">
         <v>150520.1076633951</v>
@@ -26340,7 +26340,7 @@
         <v>151341.8844013799</v>
       </c>
       <c r="K2" t="n">
-        <v>151341.8844013798</v>
+        <v>151341.8844013799</v>
       </c>
       <c r="L2" t="n">
         <v>151341.8844013799</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304447.2252514309</v>
+        <v>304447.2252514311</v>
       </c>
       <c r="C3" t="n">
-        <v>3531.094709557607</v>
+        <v>3531.094709557509</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21557.42218053987</v>
+        <v>21557.42218053986</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>360000.5125314189</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>358844.4244032895</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>358844.4244032895</v>
       </c>
       <c r="E4" t="n">
         <v>67.14558386063672</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40515.16742642657</v>
+        <v>40515.16742642658</v>
       </c>
       <c r="C5" t="n">
         <v>40599.70256325733</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-241206.8736455775</v>
+        <v>-254346.9210969599</v>
       </c>
       <c r="C6" t="n">
-        <v>60739.42868276753</v>
+        <v>47641.47594378926</v>
       </c>
       <c r="D6" t="n">
-        <v>64270.52339232514</v>
+        <v>51172.57065334669</v>
       </c>
       <c r="E6" t="n">
-        <v>-3509.18467924725</v>
+        <v>-17193.40585024538</v>
       </c>
       <c r="F6" t="n">
-        <v>134843.4424136982</v>
+        <v>121159.2212427001</v>
       </c>
       <c r="G6" t="n">
-        <v>134843.4424136982</v>
+        <v>121159.2212427001</v>
       </c>
       <c r="H6" t="n">
-        <v>134843.4424136983</v>
+        <v>121159.2212427</v>
       </c>
       <c r="I6" t="n">
-        <v>133650.3871873155</v>
+        <v>120003.5195044075</v>
       </c>
       <c r="J6" t="n">
-        <v>135288.4148784661</v>
+        <v>121641.5471955581</v>
       </c>
       <c r="K6" t="n">
-        <v>135288.4148784661</v>
+        <v>121641.5471955581</v>
       </c>
       <c r="L6" t="n">
-        <v>135288.4148784661</v>
+        <v>121641.5471955581</v>
       </c>
       <c r="M6" t="n">
-        <v>113286.0202331584</v>
+        <v>99601.79906216016</v>
       </c>
       <c r="N6" t="n">
-        <v>134843.4424136983</v>
+        <v>121159.2212427001</v>
       </c>
       <c r="O6" t="n">
-        <v>134843.4424136983</v>
+        <v>121159.2212427001</v>
       </c>
       <c r="P6" t="n">
-        <v>134843.4424136982</v>
+        <v>121159.2212427</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>315.9434599278247</v>
+        <v>315.9434599278248</v>
       </c>
       <c r="C3" t="n">
         <v>319.8212184980426</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F4" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="G4" t="n">
         <v>92.66494928910222</v>
@@ -26828,7 +26828,7 @@
         <v>92.66494928910222</v>
       </c>
       <c r="O4" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="P4" t="n">
         <v>92.66494928910222</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>315.9434599278247</v>
+        <v>315.9434599278248</v>
       </c>
       <c r="C3" t="n">
-        <v>3.877758570217951</v>
+        <v>3.877758570217844</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>86.50512102751105</v>
+        <v>86.50512102751102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,76 +27378,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4671399690905</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.5094162483256</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73.24567846819694</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>58.52525650912509</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>35.33124892954416</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.323491285356511</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.781580526956333</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>16.09652847127751</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>48.58751046101381</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85.14653687633538</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>135.80108207668</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0771084079325</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5358797316327</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2440429508748</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,34 +27457,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6639406644979</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6721659462977</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>76.12468037326957</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.63255053171127</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>28.10473742565402</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27499,34 +27499,34 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.205102146994051</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.23443014508365</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>103.4861490702065</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.0603357001177</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4255585092209</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8966731007964</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,76 +27536,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4212452503922</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1617183466295</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.3170164774018</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>86.71521999908967</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>62.8205136151649</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>50.1807526146867</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>49.61737280767913</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>40.50068772810077</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>57.92721197712441</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>68.82125337898731</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>103.7975391803443</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.6760741181036</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.0876863536667</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5112709665425</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2879529505963</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,76 +27615,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,34 +27694,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27736,34 +27736,34 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,76 +27773,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,76 +27852,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,34 +27931,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27973,34 +27973,34 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,76 +28010,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,25 +31047,25 @@
         <v>13.00766214667672</v>
       </c>
       <c r="I2" t="n">
-        <v>48.96647332208025</v>
+        <v>48.96647332208028</v>
       </c>
       <c r="J2" t="n">
         <v>107.8002260584893</v>
       </c>
       <c r="K2" t="n">
-        <v>161.5645945358554</v>
+        <v>161.5645945358555</v>
       </c>
       <c r="L2" t="n">
-        <v>200.435166040443</v>
+        <v>200.4351660404431</v>
       </c>
       <c r="M2" t="n">
         <v>223.0227419419162</v>
       </c>
       <c r="N2" t="n">
-        <v>226.6314830696345</v>
+        <v>226.6314830696346</v>
       </c>
       <c r="O2" t="n">
-        <v>214.0016829504091</v>
+        <v>214.0016829504092</v>
       </c>
       <c r="P2" t="n">
         <v>182.6454852942557</v>
@@ -31074,13 +31074,13 @@
         <v>137.1591529981141</v>
       </c>
       <c r="R2" t="n">
-        <v>79.78445573745213</v>
+        <v>79.78445573745216</v>
       </c>
       <c r="S2" t="n">
-        <v>28.94296117831279</v>
+        <v>28.9429611783128</v>
       </c>
       <c r="T2" t="n">
-        <v>5.559969832498703</v>
+        <v>5.559969832498704</v>
       </c>
       <c r="U2" t="n">
         <v>0.1016099569617124</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6795764987126796</v>
+        <v>0.6795764987126798</v>
       </c>
       <c r="H3" t="n">
-        <v>6.563278290198774</v>
+        <v>6.563278290198777</v>
       </c>
       <c r="I3" t="n">
-        <v>23.39769962673041</v>
+        <v>23.39769962673043</v>
       </c>
       <c r="J3" t="n">
-        <v>64.20507613495541</v>
+        <v>64.20507613495542</v>
       </c>
       <c r="K3" t="n">
-        <v>109.7367015487049</v>
+        <v>109.736701548705</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -31150,19 +31150,19 @@
         <v>129.7693052673362</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.74734394093784</v>
+        <v>86.74734394093787</v>
       </c>
       <c r="R3" t="n">
-        <v>42.19335489375743</v>
+        <v>42.19335489375745</v>
       </c>
       <c r="S3" t="n">
         <v>12.62283540372016</v>
       </c>
       <c r="T3" t="n">
-        <v>2.739170185600668</v>
+        <v>2.739170185600669</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04470898017846577</v>
+        <v>0.04470898017846579</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.569734108066569</v>
+        <v>0.5697341080665692</v>
       </c>
       <c r="H4" t="n">
-        <v>5.065454160810044</v>
+        <v>5.065454160810046</v>
       </c>
       <c r="I4" t="n">
-        <v>17.13345844985646</v>
+        <v>17.13345844985647</v>
       </c>
       <c r="J4" t="n">
-        <v>40.28020144030643</v>
+        <v>40.28020144030644</v>
       </c>
       <c r="K4" t="n">
-        <v>66.19274455537045</v>
+        <v>66.19274455537048</v>
       </c>
       <c r="L4" t="n">
-        <v>84.70392366655156</v>
+        <v>84.70392366655159</v>
       </c>
       <c r="M4" t="n">
-        <v>89.30841113992589</v>
+        <v>89.30841113992592</v>
       </c>
       <c r="N4" t="n">
-        <v>87.18485673713239</v>
+        <v>87.18485673713242</v>
       </c>
       <c r="O4" t="n">
-        <v>80.52932647471835</v>
+        <v>80.52932647471837</v>
       </c>
       <c r="P4" t="n">
-        <v>68.90675067016028</v>
+        <v>68.90675067016031</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.70746244910153</v>
+        <v>47.70746244910154</v>
       </c>
       <c r="R4" t="n">
-        <v>25.61731725906591</v>
+        <v>25.61731725906592</v>
       </c>
       <c r="S4" t="n">
-        <v>9.928911683305568</v>
+        <v>9.928911683305572</v>
       </c>
       <c r="T4" t="n">
-        <v>2.434318461738976</v>
+        <v>2.434318461738977</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03107640589454017</v>
+        <v>0.03107640589454018</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31770,10 +31770,10 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M11" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N11" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O11" t="n">
         <v>309.9456856660333</v>
@@ -31843,10 +31843,10 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L12" t="n">
-        <v>174.5829003017953</v>
+        <v>153.489060191812</v>
       </c>
       <c r="M12" t="n">
         <v>234.7989832111205</v>
@@ -32010,7 +32010,7 @@
         <v>323.011182516375</v>
       </c>
       <c r="N14" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O14" t="n">
         <v>309.9456856660333</v>
@@ -32089,13 +32089,13 @@
         <v>234.7989832111205</v>
       </c>
       <c r="N15" t="n">
-        <v>163.7876250036814</v>
+        <v>217.7623764228817</v>
       </c>
       <c r="O15" t="n">
         <v>234.1788327264121</v>
       </c>
       <c r="P15" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>125.6390352953988</v>
@@ -32320,10 +32320,10 @@
         <v>158.9352790843423</v>
       </c>
       <c r="L18" t="n">
-        <v>153.4890601918121</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M18" t="n">
-        <v>234.7989832111205</v>
+        <v>174.5799468423664</v>
       </c>
       <c r="N18" t="n">
         <v>224.0066613724355</v>
@@ -32557,10 +32557,10 @@
         <v>158.9352790843423</v>
       </c>
       <c r="L21" t="n">
-        <v>153.4890601918121</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M21" t="n">
-        <v>234.7989832111205</v>
+        <v>174.5799468423664</v>
       </c>
       <c r="N21" t="n">
         <v>224.0066613724355</v>
@@ -32797,10 +32797,10 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M24" t="n">
-        <v>240.9588114727117</v>
+        <v>192.8105496771767</v>
       </c>
       <c r="N24" t="n">
-        <v>182.0182278384917</v>
+        <v>230.1664896340267</v>
       </c>
       <c r="O24" t="n">
         <v>234.1788327264121</v>
@@ -33028,16 +33028,16 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L27" t="n">
         <v>213.7080965605662</v>
       </c>
       <c r="M27" t="n">
-        <v>240.9588114727117</v>
+        <v>192.8105496771767</v>
       </c>
       <c r="N27" t="n">
-        <v>203.1120679484749</v>
+        <v>230.1664896340267</v>
       </c>
       <c r="O27" t="n">
         <v>234.1788327264121</v>
@@ -33265,16 +33265,16 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L30" t="n">
         <v>213.7080965605662</v>
       </c>
       <c r="M30" t="n">
-        <v>213.9043897871599</v>
+        <v>240.9588114727117</v>
       </c>
       <c r="N30" t="n">
-        <v>230.1664896340267</v>
+        <v>182.0182278384917</v>
       </c>
       <c r="O30" t="n">
         <v>234.1788327264121</v>
@@ -33505,10 +33505,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>213.7080965605662</v>
+        <v>186.6536748750144</v>
       </c>
       <c r="M33" t="n">
-        <v>213.9043897871599</v>
+        <v>240.9588114727117</v>
       </c>
       <c r="N33" t="n">
         <v>230.1664896340267</v>
@@ -33976,10 +33976,10 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K39" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>213.7080965605662</v>
+        <v>174.5829003017953</v>
       </c>
       <c r="M39" t="n">
         <v>234.7989832111205</v>
@@ -33988,7 +33988,7 @@
         <v>224.0066613724355</v>
       </c>
       <c r="O39" t="n">
-        <v>173.959796357658</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P39" t="n">
         <v>187.9491588335306</v>
@@ -34143,7 +34143,7 @@
         <v>323.011182516375</v>
       </c>
       <c r="N41" t="n">
-        <v>322.0780128856931</v>
+        <v>322.0780128856932</v>
       </c>
       <c r="O41" t="n">
         <v>309.9456856660333</v>
@@ -34219,10 +34219,10 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M42" t="n">
-        <v>195.6737869523496</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N42" t="n">
-        <v>224.0066613724355</v>
+        <v>184.8814651136647</v>
       </c>
       <c r="O42" t="n">
         <v>234.1788327264121</v>
@@ -34450,13 +34450,13 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L45" t="n">
         <v>213.7080965605662</v>
       </c>
       <c r="M45" t="n">
-        <v>195.6737869523497</v>
+        <v>228.5546982615668</v>
       </c>
       <c r="N45" t="n">
         <v>224.0066613724355</v>
@@ -34465,7 +34465,7 @@
         <v>234.1788327264121</v>
       </c>
       <c r="P45" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>125.6390352953988</v>
@@ -35418,10 +35418,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M11" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N11" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O11" t="n">
         <v>79.84747424434661</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L12" t="n">
-        <v>36.02852052192117</v>
+        <v>14.93468041193783</v>
       </c>
       <c r="M12" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N12" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O12" t="n">
         <v>91.5825882819677</v>
@@ -35655,10 +35655,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M14" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N14" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O14" t="n">
         <v>79.84747424434661</v>
@@ -35734,16 +35734,16 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M15" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N15" t="n">
-        <v>32.44591292034811</v>
+        <v>86.42066433954837</v>
       </c>
       <c r="O15" t="n">
         <v>91.5825882819677</v>
       </c>
       <c r="P15" t="n">
-        <v>53.97475141920032</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>21.09384010998329</v>
       </c>
       <c r="L18" t="n">
-        <v>14.93468041193789</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M18" t="n">
-        <v>92.66494928910222</v>
+        <v>32.44591292034811</v>
       </c>
       <c r="N18" t="n">
         <v>92.66494928910222</v>
@@ -36205,10 +36205,10 @@
         <v>21.09384010998329</v>
       </c>
       <c r="L21" t="n">
-        <v>14.93468041193789</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M21" t="n">
-        <v>92.66494928910222</v>
+        <v>32.44591292034811</v>
       </c>
       <c r="N21" t="n">
         <v>92.66494928910222</v>
@@ -36445,10 +36445,10 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M24" t="n">
+        <v>50.67651575515833</v>
+      </c>
+      <c r="N24" t="n">
         <v>98.8247775506934</v>
-      </c>
-      <c r="N24" t="n">
-        <v>50.67651575515835</v>
       </c>
       <c r="O24" t="n">
         <v>91.5825882819677</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L27" t="n">
         <v>75.15371678069201</v>
       </c>
       <c r="M27" t="n">
+        <v>50.67651575515833</v>
+      </c>
+      <c r="N27" t="n">
         <v>98.8247775506934</v>
-      </c>
-      <c r="N27" t="n">
-        <v>71.77035586514164</v>
       </c>
       <c r="O27" t="n">
         <v>91.5825882819677</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L30" t="n">
         <v>75.15371678069201</v>
       </c>
       <c r="M30" t="n">
-        <v>71.77035586514162</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="N30" t="n">
-        <v>98.8247775506934</v>
+        <v>50.67651575515835</v>
       </c>
       <c r="O30" t="n">
         <v>91.5825882819677</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>75.15371678069201</v>
+        <v>48.09929509514024</v>
       </c>
       <c r="M33" t="n">
-        <v>71.77035586514162</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="N33" t="n">
         <v>98.8247775506934</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>21.09384010998329</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>75.15371678069201</v>
+        <v>36.02852052192117</v>
       </c>
       <c r="M39" t="n">
         <v>92.66494928910222</v>
@@ -37636,7 +37636,7 @@
         <v>92.66494928910222</v>
       </c>
       <c r="O39" t="n">
-        <v>31.36355191321357</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P39" t="n">
         <v>53.97475141920032</v>
@@ -37788,10 +37788,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M41" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="N41" t="n">
-        <v>92.6649492891022</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="O41" t="n">
         <v>79.84747424434661</v>
@@ -37867,10 +37867,10 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M42" t="n">
-        <v>53.53975303033131</v>
+        <v>92.66494928910222</v>
       </c>
       <c r="N42" t="n">
-        <v>92.6649492891022</v>
+        <v>53.5397530303314</v>
       </c>
       <c r="O42" t="n">
         <v>91.5825882819677</v>
@@ -38025,7 +38025,7 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M44" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891023</v>
       </c>
       <c r="N44" t="n">
         <v>92.66494928910222</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L45" t="n">
         <v>75.15371678069201</v>
       </c>
       <c r="M45" t="n">
-        <v>53.5397530303314</v>
+        <v>86.42066433954845</v>
       </c>
       <c r="N45" t="n">
         <v>92.66494928910222</v>
@@ -38113,7 +38113,7 @@
         <v>91.5825882819677</v>
       </c>
       <c r="P45" t="n">
-        <v>53.97475141920032</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_25_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_25_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>435651.4581480708</v>
+        <v>536499.3927300486</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16418600.27484853</v>
+        <v>21138955.59783731</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5692508.664038857</v>
+        <v>3512673.600440205</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>92.6649492891022</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>92.6649492891022</v>
       </c>
       <c r="V11" t="n">
-        <v>81.61928733384123</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>75.37201941954103</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>14.34273879062272</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="T12" t="n">
         <v>92.6649492891022</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>92.6649492891022</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>92.6649492891022</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>81.61928733384123</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>92.6649492891022</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,73 +1688,73 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>81.61928733384123</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="G15" t="n">
-        <v>67.27654854321852</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>14.3427387906227</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
+      <c r="Y15" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>57.96571614961795</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R17" t="n">
-        <v>81.61928733384123</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>67.27654854321852</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F18" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1967,25 +1967,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="T18" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>57.96571614961792</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D21" t="n">
-        <v>81.6192873338412</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="U21" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W21" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="C23" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>98.8247775506934</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>98.8247775506934</v>
+      </c>
+      <c r="Y23" t="n">
         <v>69.17705022825315</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>98.8247775506934</v>
-      </c>
-      <c r="S23" t="n">
-        <v>98.8247775506934</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2441,10 +2441,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.475385653870981</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>87.04486406665072</v>
       </c>
       <c r="V24" t="n">
         <v>98.8247775506934</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>87.04486406665072</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2687,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>87.04486406665072</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2794,70 +2794,70 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="E29" t="n">
+        <v>98.8247775506934</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>69.17705022825315</v>
-      </c>
-      <c r="F29" t="n">
-        <v>98.8247775506934</v>
-      </c>
-      <c r="G29" t="n">
-        <v>98.8247775506934</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>98.8247775506934</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2915,25 +2915,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="T30" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>98.8247775506934</v>
+        <v>72.70212527602803</v>
       </c>
       <c r="V30" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>87.04486406665072</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>45.52347904402988</v>
+      </c>
+      <c r="D32" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>69.17705022825315</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>98.8247775506934</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>72.70212527602803</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3122,46 +3122,46 @@
         <v>98.8247775506934</v>
       </c>
       <c r="G33" t="n">
+        <v>2.475385653871041</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>84.56947841277972</v>
+      </c>
+      <c r="S33" t="n">
         <v>98.8247775506934</v>
       </c>
-      <c r="H33" t="n">
+      <c r="T33" t="n">
         <v>98.8247775506934</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>14.3427387906227</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="G35" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R35" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>57.96571614961793</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>57.96571614961801</v>
       </c>
     </row>
     <row r="36">
@@ -3347,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>92.66494928910222</v>
+        <v>81.61928733384129</v>
       </c>
       <c r="W36" t="n">
-        <v>92.66494928910222</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U38" t="n">
-        <v>81.61928733384114</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F39" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>67.27654854321852</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W39" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>57.96571614961795</v>
       </c>
       <c r="F41" t="n">
-        <v>57.96571614961793</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="G41" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>81.6192873338412</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W42" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="G44" t="n">
-        <v>92.66494928910222</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="H44" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>57.96571614961795</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="G45" t="n">
-        <v>75.37201941954106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4100,25 +4100,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>92.66494928910222</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.6151136988902</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="C11" t="n">
-        <v>194.6151136988902</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="D11" t="n">
-        <v>194.6151136988902</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="E11" t="n">
-        <v>194.6151136988902</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="F11" t="n">
-        <v>194.6151136988902</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="G11" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H11" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I11" t="n">
         <v>7.413195943128176</v>
@@ -5044,10 +5044,10 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K11" t="n">
-        <v>21.18357364821452</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L11" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940375</v>
       </c>
       <c r="M11" t="n">
         <v>166.9070065056149</v>
@@ -5056,7 +5056,7 @@
         <v>258.6453063018261</v>
       </c>
       <c r="O11" t="n">
-        <v>337.6943058037292</v>
+        <v>337.6943058037293</v>
       </c>
       <c r="P11" t="n">
         <v>370.6597971564088</v>
@@ -5077,16 +5077,16 @@
         <v>277.0588382785278</v>
       </c>
       <c r="V11" t="n">
-        <v>194.6151136988902</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W11" t="n">
-        <v>194.6151136988902</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="X11" t="n">
-        <v>194.6151136988902</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.6151136988902</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.413195943128176</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="C12" t="n">
-        <v>7.413195943128176</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="D12" t="n">
         <v>7.413195943128176</v>
@@ -5123,49 +5123,49 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K12" t="n">
-        <v>28.29609765201163</v>
+        <v>22.11425555195335</v>
       </c>
       <c r="L12" t="n">
-        <v>43.08143125983008</v>
+        <v>96.51643516483841</v>
       </c>
       <c r="M12" t="n">
-        <v>134.8197310560413</v>
+        <v>188.2547349610496</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5580308522524</v>
+        <v>279.9930347572608</v>
       </c>
       <c r="O12" t="n">
-        <v>317.2247932514005</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="P12" t="n">
         <v>370.6597971564088</v>
       </c>
       <c r="Q12" t="n">
-        <v>370.6597971564088</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R12" t="n">
-        <v>370.6597971564088</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="S12" t="n">
-        <v>370.6597971564088</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="T12" t="n">
-        <v>277.0588382785278</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="U12" t="n">
-        <v>277.0588382785278</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="V12" t="n">
-        <v>277.0588382785278</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="W12" t="n">
-        <v>183.4578794006468</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="X12" t="n">
-        <v>89.85692052276578</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.413195943128176</v>
+        <v>83.54654889215952</v>
       </c>
     </row>
     <row r="13">
@@ -5257,16 +5257,16 @@
         <v>101.0141548210092</v>
       </c>
       <c r="C14" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D14" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E14" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F14" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G14" t="n">
         <v>7.413195943128176</v>
@@ -5281,10 +5281,10 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K14" t="n">
-        <v>21.18357364821451</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L14" t="n">
-        <v>75.16870670940374</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M14" t="n">
         <v>166.9070065056149</v>
@@ -5311,13 +5311,13 @@
         <v>277.0588382785278</v>
       </c>
       <c r="U14" t="n">
-        <v>194.6151136988902</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V14" t="n">
-        <v>194.6151136988902</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W14" t="n">
-        <v>101.0141548210092</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="X14" t="n">
         <v>101.0141548210092</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>262.5712233385049</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C15" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D15" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E15" t="n">
-        <v>168.9702644606239</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F15" t="n">
-        <v>75.36930558274285</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G15" t="n">
         <v>7.413195943128176</v>
@@ -5369,40 +5369,40 @@
         <v>194.4365770611079</v>
       </c>
       <c r="N15" t="n">
-        <v>279.9930347572608</v>
+        <v>286.1748768573191</v>
       </c>
       <c r="O15" t="n">
-        <v>370.6597971564088</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P15" t="n">
         <v>370.6597971564088</v>
       </c>
       <c r="Q15" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R15" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S15" t="n">
-        <v>356.1721822163859</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T15" t="n">
-        <v>262.5712233385049</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="U15" t="n">
-        <v>262.5712233385049</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="V15" t="n">
-        <v>262.5712233385049</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W15" t="n">
-        <v>262.5712233385049</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="X15" t="n">
-        <v>262.5712233385049</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y15" t="n">
-        <v>262.5712233385049</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="16">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.0141548210092</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="C17" t="n">
-        <v>101.0141548210092</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="D17" t="n">
-        <v>101.0141548210092</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="E17" t="n">
-        <v>7.413195943128178</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="F17" t="n">
-        <v>7.413195943128178</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="G17" t="n">
-        <v>7.413195943128178</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="H17" t="n">
-        <v>7.413195943128178</v>
+        <v>65.96442437708571</v>
       </c>
       <c r="I17" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J17" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K17" t="n">
-        <v>21.18357364821453</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L17" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940366</v>
       </c>
       <c r="M17" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N17" t="n">
-        <v>258.6453063018262</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O17" t="n">
-        <v>337.6943058037293</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P17" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q17" t="n">
-        <v>370.6597971564089</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="R17" t="n">
-        <v>288.2160725767713</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="S17" t="n">
-        <v>288.2160725767713</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="T17" t="n">
-        <v>194.6151136988902</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="U17" t="n">
-        <v>194.6151136988902</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="V17" t="n">
-        <v>194.6151136988902</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="W17" t="n">
-        <v>194.6151136988902</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="X17" t="n">
-        <v>194.6151136988902</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="Y17" t="n">
-        <v>194.6151136988902</v>
+        <v>159.5653832549667</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="C18" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="D18" t="n">
-        <v>101.0141548210092</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="E18" t="n">
         <v>101.0141548210092</v>
       </c>
       <c r="F18" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G18" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H18" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I18" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J18" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K18" t="n">
-        <v>28.29609765201163</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L18" t="n">
-        <v>102.6982772648967</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M18" t="n">
-        <v>134.8197310560413</v>
+        <v>173.5536753522244</v>
       </c>
       <c r="N18" t="n">
-        <v>226.5580308522526</v>
+        <v>265.2919751484357</v>
       </c>
       <c r="O18" t="n">
-        <v>317.2247932514006</v>
+        <v>355.9587375475837</v>
       </c>
       <c r="P18" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q18" t="n">
-        <v>370.6597971564089</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R18" t="n">
-        <v>370.6597971564089</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="S18" t="n">
-        <v>370.6597971564089</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="T18" t="n">
-        <v>288.2160725767713</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="U18" t="n">
-        <v>288.2160725767713</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="V18" t="n">
-        <v>194.6151136988902</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="W18" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="X18" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="Y18" t="n">
-        <v>101.0141548210092</v>
+        <v>262.5712233385049</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>65.96442437708568</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="C20" t="n">
-        <v>65.96442437708568</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="D20" t="n">
-        <v>65.96442437708568</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="E20" t="n">
-        <v>65.96442437708568</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="F20" t="n">
-        <v>7.413195943128178</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="G20" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="H20" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I20" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J20" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K20" t="n">
-        <v>21.18357364821453</v>
+        <v>21.18357364821452</v>
       </c>
       <c r="L20" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940369</v>
       </c>
       <c r="M20" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N20" t="n">
-        <v>258.6453063018262</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O20" t="n">
-        <v>337.6943058037293</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P20" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q20" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R20" t="n">
-        <v>253.1663421328478</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S20" t="n">
-        <v>253.1663421328478</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T20" t="n">
-        <v>253.1663421328478</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1663421328478</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="V20" t="n">
-        <v>253.1663421328478</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W20" t="n">
-        <v>253.1663421328478</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="X20" t="n">
-        <v>253.1663421328478</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="Y20" t="n">
-        <v>159.5653832549667</v>
+        <v>194.6151136988902</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C21" t="n">
-        <v>89.85692052276575</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J21" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K21" t="n">
         <v>28.29609765201163</v>
@@ -5840,43 +5840,43 @@
         <v>102.6982772648967</v>
       </c>
       <c r="M21" t="n">
-        <v>134.8197310560413</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5580308522526</v>
+        <v>286.1748768573191</v>
       </c>
       <c r="O21" t="n">
-        <v>317.2247932514006</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P21" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q21" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R21" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S21" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T21" t="n">
-        <v>370.6597971564089</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="U21" t="n">
-        <v>277.0588382785278</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="V21" t="n">
-        <v>183.4578794006468</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W21" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X21" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y21" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>77.7817905154223</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="C23" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="D23" t="n">
         <v>7.905982204055472</v>
@@ -6013,28 +6013,28 @@
         <v>377.2508133963114</v>
       </c>
       <c r="R23" t="n">
+        <v>377.2508133963114</v>
+      </c>
+      <c r="S23" t="n">
+        <v>377.2508133963114</v>
+      </c>
+      <c r="T23" t="n">
+        <v>377.2508133963114</v>
+      </c>
+      <c r="U23" t="n">
+        <v>377.2508133963114</v>
+      </c>
+      <c r="V23" t="n">
         <v>277.4278057693484</v>
       </c>
-      <c r="S23" t="n">
-        <v>177.6047981423853</v>
-      </c>
-      <c r="T23" t="n">
-        <v>177.6047981423853</v>
-      </c>
-      <c r="U23" t="n">
-        <v>177.6047981423853</v>
-      </c>
-      <c r="V23" t="n">
-        <v>177.6047981423853</v>
-      </c>
       <c r="W23" t="n">
-        <v>177.6047981423853</v>
+        <v>277.4278057693484</v>
       </c>
       <c r="X23" t="n">
         <v>177.6047981423853</v>
       </c>
       <c r="Y23" t="n">
-        <v>177.6047981423853</v>
+        <v>107.7289898310185</v>
       </c>
     </row>
     <row r="24">
@@ -6089,16 +6089,16 @@
         <v>395.2991102027736</v>
       </c>
       <c r="Q24" t="n">
-        <v>392.798720653409</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="R24" t="n">
-        <v>307.3750050849446</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="S24" t="n">
-        <v>307.3750050849446</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="T24" t="n">
-        <v>307.3750050849446</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="U24" t="n">
         <v>307.3750050849446</v>
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.6530949488475</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="C27" t="n">
-        <v>195.6530949488475</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="D27" t="n">
-        <v>107.7289898310185</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="E27" t="n">
-        <v>107.7289898310185</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="F27" t="n">
-        <v>107.7289898310185</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="G27" t="n">
         <v>7.905982204055472</v>
@@ -6335,22 +6335,22 @@
         <v>395.2991102027736</v>
       </c>
       <c r="T27" t="n">
+        <v>395.2991102027736</v>
+      </c>
+      <c r="U27" t="n">
         <v>295.4761025758106</v>
-      </c>
-      <c r="U27" t="n">
-        <v>195.6530949488475</v>
       </c>
       <c r="V27" t="n">
         <v>195.6530949488475</v>
       </c>
       <c r="W27" t="n">
-        <v>195.6530949488475</v>
+        <v>95.83008732188449</v>
       </c>
       <c r="X27" t="n">
-        <v>195.6530949488475</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="Y27" t="n">
-        <v>195.6530949488475</v>
+        <v>7.905982204055472</v>
       </c>
     </row>
     <row r="28">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>277.4278057693484</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="C29" t="n">
-        <v>277.4278057693484</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="D29" t="n">
-        <v>277.4278057693484</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="E29" t="n">
-        <v>207.5519974579815</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="F29" t="n">
-        <v>107.7289898310185</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="G29" t="n">
         <v>7.905982204055472</v>
@@ -6496,19 +6496,19 @@
         <v>377.2508133963114</v>
       </c>
       <c r="U29" t="n">
-        <v>277.4278057693484</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="V29" t="n">
-        <v>277.4278057693484</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="W29" t="n">
-        <v>277.4278057693484</v>
+        <v>377.2508133963114</v>
       </c>
       <c r="X29" t="n">
-        <v>277.4278057693484</v>
+        <v>307.3750050849446</v>
       </c>
       <c r="Y29" t="n">
-        <v>277.4278057693484</v>
+        <v>307.3750050849446</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="C30" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="D30" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="E30" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="F30" t="n">
-        <v>7.905982204055472</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="G30" t="n">
         <v>7.905982204055472</v>
@@ -6554,40 +6554,40 @@
         <v>201.0275933010105</v>
       </c>
       <c r="N30" t="n">
-        <v>251.1973438986172</v>
+        <v>298.864123076197</v>
       </c>
       <c r="O30" t="n">
-        <v>341.8641062977653</v>
+        <v>389.530885475345</v>
       </c>
       <c r="P30" t="n">
         <v>395.2991102027736</v>
       </c>
       <c r="Q30" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="R30" t="n">
-        <v>395.2991102027736</v>
+        <v>380.8114952627507</v>
       </c>
       <c r="S30" t="n">
-        <v>395.2991102027736</v>
+        <v>280.9884876357876</v>
       </c>
       <c r="T30" t="n">
-        <v>295.4761025758106</v>
+        <v>280.9884876357876</v>
       </c>
       <c r="U30" t="n">
-        <v>195.6530949488475</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="V30" t="n">
-        <v>95.83008732188449</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="W30" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="X30" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.905982204055472</v>
+        <v>207.5519974579815</v>
       </c>
     </row>
     <row r="31">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>177.6047981423853</v>
+        <v>153.7123019967053</v>
       </c>
       <c r="C32" t="n">
-        <v>177.6047981423853</v>
+        <v>107.7289898310185</v>
       </c>
       <c r="D32" t="n">
-        <v>177.6047981423853</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="E32" t="n">
-        <v>177.6047981423853</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="F32" t="n">
-        <v>107.7289898310185</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="G32" t="n">
         <v>7.905982204055472</v>
@@ -6721,31 +6721,31 @@
         <v>377.2508133963114</v>
       </c>
       <c r="Q32" t="n">
-        <v>377.2508133963114</v>
+        <v>353.3583172506313</v>
       </c>
       <c r="R32" t="n">
-        <v>377.2508133963114</v>
+        <v>353.3583172506313</v>
       </c>
       <c r="S32" t="n">
-        <v>377.2508133963114</v>
+        <v>353.3583172506313</v>
       </c>
       <c r="T32" t="n">
-        <v>377.2508133963114</v>
+        <v>353.3583172506313</v>
       </c>
       <c r="U32" t="n">
-        <v>277.4278057693484</v>
+        <v>253.5353096236683</v>
       </c>
       <c r="V32" t="n">
-        <v>277.4278057693484</v>
+        <v>253.5353096236683</v>
       </c>
       <c r="W32" t="n">
-        <v>277.4278057693484</v>
+        <v>253.5353096236683</v>
       </c>
       <c r="X32" t="n">
-        <v>277.4278057693484</v>
+        <v>153.7123019967053</v>
       </c>
       <c r="Y32" t="n">
-        <v>277.4278057693484</v>
+        <v>153.7123019967053</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>307.3750050849446</v>
+        <v>110.2293793803832</v>
       </c>
       <c r="C33" t="n">
-        <v>307.3750050849446</v>
+        <v>110.2293793803832</v>
       </c>
       <c r="D33" t="n">
-        <v>307.3750050849446</v>
+        <v>110.2293793803832</v>
       </c>
       <c r="E33" t="n">
-        <v>307.3750050849446</v>
+        <v>110.2293793803832</v>
       </c>
       <c r="F33" t="n">
-        <v>207.5519974579815</v>
+        <v>10.40637175342016</v>
       </c>
       <c r="G33" t="n">
-        <v>107.7289898310185</v>
+        <v>7.905982204055472</v>
       </c>
       <c r="H33" t="n">
         <v>7.905982204055472</v>
@@ -6782,13 +6782,13 @@
         <v>7.905982204055472</v>
       </c>
       <c r="K33" t="n">
-        <v>7.905982204055472</v>
+        <v>28.78888391293893</v>
       </c>
       <c r="L33" t="n">
-        <v>55.52428434824431</v>
+        <v>103.191063525824</v>
       </c>
       <c r="M33" t="n">
-        <v>153.3608141234308</v>
+        <v>201.0275933010105</v>
       </c>
       <c r="N33" t="n">
         <v>251.1973438986172</v>
@@ -6800,31 +6800,31 @@
         <v>395.2991102027736</v>
       </c>
       <c r="Q33" t="n">
-        <v>380.8114952627507</v>
+        <v>395.2991102027736</v>
       </c>
       <c r="R33" t="n">
-        <v>380.8114952627507</v>
+        <v>309.8753946343093</v>
       </c>
       <c r="S33" t="n">
-        <v>380.8114952627507</v>
+        <v>210.0523870073462</v>
       </c>
       <c r="T33" t="n">
-        <v>380.8114952627507</v>
+        <v>110.2293793803832</v>
       </c>
       <c r="U33" t="n">
-        <v>380.8114952627507</v>
+        <v>110.2293793803832</v>
       </c>
       <c r="V33" t="n">
-        <v>380.8114952627507</v>
+        <v>110.2293793803832</v>
       </c>
       <c r="W33" t="n">
-        <v>380.8114952627507</v>
+        <v>110.2293793803832</v>
       </c>
       <c r="X33" t="n">
-        <v>380.8114952627507</v>
+        <v>110.2293793803832</v>
       </c>
       <c r="Y33" t="n">
-        <v>380.8114952627507</v>
+        <v>110.2293793803832</v>
       </c>
     </row>
     <row r="34">
@@ -6925,61 +6925,61 @@
         <v>101.0141548210092</v>
       </c>
       <c r="F35" t="n">
-        <v>101.0141548210092</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="G35" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="H35" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="I35" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="J35" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="K35" t="n">
-        <v>21.18357364821453</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L35" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940366</v>
       </c>
       <c r="M35" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N35" t="n">
-        <v>258.6453063018262</v>
+        <v>258.6453063018263</v>
       </c>
       <c r="O35" t="n">
-        <v>337.6943058037293</v>
+        <v>337.6943058037294</v>
       </c>
       <c r="P35" t="n">
-        <v>370.6597971564089</v>
+        <v>370.659797156409</v>
       </c>
       <c r="Q35" t="n">
-        <v>346.7673010107288</v>
+        <v>346.7673010107289</v>
       </c>
       <c r="R35" t="n">
-        <v>253.1663421328478</v>
+        <v>346.7673010107289</v>
       </c>
       <c r="S35" t="n">
-        <v>159.5653832549667</v>
+        <v>346.7673010107289</v>
       </c>
       <c r="T35" t="n">
-        <v>101.0141548210092</v>
+        <v>253.1663421328479</v>
       </c>
       <c r="U35" t="n">
-        <v>101.0141548210092</v>
+        <v>253.1663421328479</v>
       </c>
       <c r="V35" t="n">
-        <v>101.0141548210092</v>
+        <v>253.1663421328479</v>
       </c>
       <c r="W35" t="n">
-        <v>101.0141548210092</v>
+        <v>253.1663421328479</v>
       </c>
       <c r="X35" t="n">
-        <v>101.0141548210092</v>
+        <v>159.5653832549668</v>
       </c>
       <c r="Y35" t="n">
         <v>101.0141548210092</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>194.6151136988903</v>
+      </c>
+      <c r="C36" t="n">
+        <v>194.6151136988903</v>
+      </c>
+      <c r="D36" t="n">
+        <v>194.6151136988903</v>
+      </c>
+      <c r="E36" t="n">
         <v>101.0141548210092</v>
       </c>
-      <c r="C36" t="n">
-        <v>7.413195943128178</v>
-      </c>
-      <c r="D36" t="n">
-        <v>7.413195943128178</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7.413195943128178</v>
-      </c>
       <c r="F36" t="n">
-        <v>7.413195943128178</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G36" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="H36" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="I36" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="J36" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="K36" t="n">
-        <v>28.29609765201163</v>
+        <v>28.29609765201164</v>
       </c>
       <c r="L36" t="n">
         <v>102.6982772648967</v>
       </c>
       <c r="M36" t="n">
-        <v>134.8197310560413</v>
+        <v>194.436577061108</v>
       </c>
       <c r="N36" t="n">
-        <v>226.5580308522526</v>
+        <v>226.5580308522527</v>
       </c>
       <c r="O36" t="n">
-        <v>317.2247932514006</v>
+        <v>317.2247932514007</v>
       </c>
       <c r="P36" t="n">
-        <v>370.6597971564089</v>
+        <v>370.659797156409</v>
       </c>
       <c r="Q36" t="n">
-        <v>370.6597971564089</v>
+        <v>370.659797156409</v>
       </c>
       <c r="R36" t="n">
-        <v>370.6597971564089</v>
+        <v>370.659797156409</v>
       </c>
       <c r="S36" t="n">
-        <v>370.6597971564089</v>
+        <v>370.659797156409</v>
       </c>
       <c r="T36" t="n">
-        <v>288.2160725767713</v>
+        <v>370.659797156409</v>
       </c>
       <c r="U36" t="n">
-        <v>288.2160725767713</v>
+        <v>370.659797156409</v>
       </c>
       <c r="V36" t="n">
-        <v>194.6151136988902</v>
+        <v>288.2160725767714</v>
       </c>
       <c r="W36" t="n">
-        <v>101.0141548210092</v>
+        <v>194.6151136988903</v>
       </c>
       <c r="X36" t="n">
-        <v>101.0141548210092</v>
+        <v>194.6151136988903</v>
       </c>
       <c r="Y36" t="n">
-        <v>101.0141548210092</v>
+        <v>194.6151136988903</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="C37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="D37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="E37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="F37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="G37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="H37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="I37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="J37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="K37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="L37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="M37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="N37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="O37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="P37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="R37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="S37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="T37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="U37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="V37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="W37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="X37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.413195943128178</v>
+        <v>7.41319594312818</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="C38" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="D38" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E38" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F38" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G38" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H38" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I38" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J38" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K38" t="n">
         <v>21.18357364821452</v>
@@ -7189,7 +7189,7 @@
         <v>258.6453063018261</v>
       </c>
       <c r="O38" t="n">
-        <v>337.6943058037293</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P38" t="n">
         <v>370.6597971564088</v>
@@ -7198,28 +7198,28 @@
         <v>370.6597971564088</v>
       </c>
       <c r="R38" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="S38" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="T38" t="n">
         <v>277.0588382785278</v>
       </c>
-      <c r="S38" t="n">
-        <v>183.4578794006467</v>
-      </c>
-      <c r="T38" t="n">
-        <v>183.4578794006467</v>
-      </c>
       <c r="U38" t="n">
-        <v>101.0141548210092</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="V38" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="W38" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="X38" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="Y38" t="n">
-        <v>101.0141548210092</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="39">
@@ -7238,55 +7238,55 @@
         <v>101.0141548210092</v>
       </c>
       <c r="E39" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J39" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K39" t="n">
-        <v>7.413195943128178</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L39" t="n">
-        <v>43.08143125983014</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M39" t="n">
-        <v>134.8197310560413</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N39" t="n">
-        <v>226.5580308522526</v>
+        <v>226.5580308522524</v>
       </c>
       <c r="O39" t="n">
-        <v>317.2247932514006</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P39" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q39" t="n">
-        <v>356.172182216386</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R39" t="n">
-        <v>356.172182216386</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S39" t="n">
-        <v>356.172182216386</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T39" t="n">
-        <v>262.5712233385049</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U39" t="n">
-        <v>194.6151136988902</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="V39" t="n">
         <v>194.6151136988902</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>159.5653832549667</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="C41" t="n">
-        <v>159.5653832549667</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="D41" t="n">
-        <v>159.5653832549667</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="E41" t="n">
-        <v>159.5653832549667</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="F41" t="n">
         <v>101.0141548210092</v>
       </c>
       <c r="G41" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H41" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I41" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J41" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K41" t="n">
         <v>21.18357364821452</v>
@@ -7426,37 +7426,37 @@
         <v>258.6453063018261</v>
       </c>
       <c r="O41" t="n">
-        <v>337.6943058037293</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P41" t="n">
         <v>370.6597971564088</v>
       </c>
       <c r="Q41" t="n">
-        <v>346.7673010107288</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="R41" t="n">
-        <v>346.7673010107288</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="S41" t="n">
-        <v>346.7673010107288</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="T41" t="n">
-        <v>253.1663421328478</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="U41" t="n">
-        <v>159.5653832549667</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="V41" t="n">
-        <v>159.5653832549667</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="W41" t="n">
-        <v>159.5653832549667</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="X41" t="n">
-        <v>159.5653832549667</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="Y41" t="n">
-        <v>159.5653832549667</v>
+        <v>253.1663421328477</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C42" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D42" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E42" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F42" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G42" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H42" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I42" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J42" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K42" t="n">
-        <v>7.413195943128178</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L42" t="n">
-        <v>81.81537555601327</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M42" t="n">
-        <v>173.5536753522245</v>
+        <v>134.8197310560413</v>
       </c>
       <c r="N42" t="n">
-        <v>226.5580308522526</v>
+        <v>226.5580308522524</v>
       </c>
       <c r="O42" t="n">
-        <v>317.2247932514006</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P42" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q42" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R42" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S42" t="n">
-        <v>277.0588382785278</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T42" t="n">
-        <v>183.4578794006468</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U42" t="n">
-        <v>183.4578794006468</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="V42" t="n">
-        <v>183.4578794006468</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W42" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X42" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y42" t="n">
-        <v>89.85692052276575</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>288.2160725767713</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="C44" t="n">
-        <v>288.2160725767713</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="D44" t="n">
-        <v>288.2160725767713</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="E44" t="n">
-        <v>288.2160725767713</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="F44" t="n">
-        <v>288.2160725767713</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="G44" t="n">
-        <v>194.6151136988902</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H44" t="n">
-        <v>101.0141548210092</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I44" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J44" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K44" t="n">
-        <v>21.18357364821452</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L44" t="n">
-        <v>75.16870670940369</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M44" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N44" t="n">
-        <v>258.6453063018262</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O44" t="n">
-        <v>337.6943058037293</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P44" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q44" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R44" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S44" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T44" t="n">
-        <v>346.7673010107288</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U44" t="n">
-        <v>288.2160725767713</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V44" t="n">
-        <v>288.2160725767713</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W44" t="n">
-        <v>288.2160725767713</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="X44" t="n">
-        <v>288.2160725767713</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.2160725767713</v>
+        <v>183.4578794006468</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>83.54654889215955</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="C45" t="n">
-        <v>83.54654889215955</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="D45" t="n">
-        <v>83.54654889215955</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="E45" t="n">
-        <v>83.54654889215955</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="F45" t="n">
-        <v>83.54654889215955</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G45" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H45" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I45" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J45" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K45" t="n">
         <v>28.29609765201163</v>
       </c>
       <c r="L45" t="n">
-        <v>102.6982772648967</v>
+        <v>43.08143125983008</v>
       </c>
       <c r="M45" t="n">
-        <v>188.2547349610497</v>
+        <v>134.8197310560413</v>
       </c>
       <c r="N45" t="n">
-        <v>279.9930347572609</v>
+        <v>226.5580308522524</v>
       </c>
       <c r="O45" t="n">
-        <v>370.6597971564089</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P45" t="n">
-        <v>370.6597971564089</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q45" t="n">
-        <v>356.172182216386</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R45" t="n">
-        <v>270.7484666479216</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S45" t="n">
-        <v>270.7484666479216</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T45" t="n">
-        <v>177.1475077700406</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U45" t="n">
-        <v>83.54654889215955</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="V45" t="n">
-        <v>83.54654889215955</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="W45" t="n">
-        <v>83.54654889215955</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="X45" t="n">
-        <v>83.54654889215955</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="Y45" t="n">
-        <v>83.54654889215955</v>
+        <v>89.85692052276578</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.413195943128178</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
   </sheetData>
@@ -22546,76 +22546,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>14.03261305311364</v>
+        <v>414.0326130531137</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4671399690905</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.5094162483256</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73.24567846819694</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>58.52525650912509</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>35.33124892954416</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.323491285356511</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.781580526956333</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>16.09652847127751</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>48.58751046101381</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85.14653687633538</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>135.80108207668</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0771084079325</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5358797316327</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2440429508748</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,34 +22625,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6639406644979</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6721659462977</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>76.12468037326957</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.63255053171127</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>28.10473742565402</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,34 +22667,34 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.205102146994051</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.23443014508365</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>103.4861490702065</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.0603357001177</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4255585092209</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8966731007964</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,76 +22704,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4212452503922</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.1617183466295</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.3170164774018</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>86.71521999908967</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>62.8205136151649</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>50.1807526146867</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>49.61737280767913</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>40.50068772810077</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>57.92721197712441</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>68.82125337898731</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>103.7975391803443</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.6760741181036</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.0876863536667</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5112709665425</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2879529505963</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,76 +22783,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>14.01702407393689</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,34 +22862,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22904,34 +22904,34 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,76 +22941,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,76 +23020,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>14.01702407393689</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,34 +23099,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23141,34 +23141,34 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,76 +23178,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>320.7982251355236</v>
+        <v>331.8438870907846</v>
       </c>
       <c r="H11" t="n">
         <v>320.6353766150897</v>
       </c>
       <c r="I11" t="n">
-        <v>46.89118423444745</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J11" t="n">
         <v>24.91528667358037</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.65357118422324</v>
+        <v>23.65357118422327</v>
       </c>
       <c r="R11" t="n">
         <v>100.0310828299331</v>
@@ -23317,10 +23317,10 @@
         <v>158.5335385714936</v>
       </c>
       <c r="V11" t="n">
-        <v>246.1329711362937</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23342,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>72.07304614509772</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23381,13 +23381,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>153.4011028494393</v>
+        <v>60.73615356033713</v>
       </c>
       <c r="T12" t="n">
         <v>103.5325490100188</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>159.0300338718174</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>113.1080359143753</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>124.0634084434631</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23439,28 +23439,28 @@
         <v>130.6355227555885</v>
       </c>
       <c r="J13" t="n">
-        <v>68.65627904547948</v>
+        <v>68.65627904547949</v>
       </c>
       <c r="K13" t="n">
-        <v>33.14412614092828</v>
+        <v>33.14412614092829</v>
       </c>
       <c r="L13" t="n">
-        <v>12.20519387026839</v>
+        <v>12.2051938702684</v>
       </c>
       <c r="M13" t="n">
-        <v>9.577470677924651</v>
+        <v>9.57747067792468</v>
       </c>
       <c r="N13" t="n">
-        <v>1.412844977410202</v>
+        <v>1.412844977410217</v>
       </c>
       <c r="O13" t="n">
-        <v>21.823262646183</v>
+        <v>21.82326264618301</v>
       </c>
       <c r="P13" t="n">
-        <v>37.92808757638606</v>
+        <v>37.92808757638608</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.40871249605685</v>
+        <v>82.40871249605686</v>
       </c>
       <c r="R13" t="n">
         <v>140.1909870721275</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819054</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H14" t="n">
         <v>320.6353766150897</v>
@@ -23551,16 +23551,16 @@
         <v>122.3782128463251</v>
       </c>
       <c r="U14" t="n">
-        <v>169.5792005267545</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W14" t="n">
-        <v>256.5760194283108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>288.1118133446278</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>80.04354969921354</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,10 +23585,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>52.40426310428168</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>69.08271559472578</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H15" t="n">
         <v>102.729632124056</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R15" t="n">
         <v>84.56947841277972</v>
@@ -23627,22 +23627,22 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T15" t="n">
-        <v>103.5325490100188</v>
+        <v>114.5782109652797</v>
       </c>
       <c r="U15" t="n">
         <v>225.8766285924705</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>113.1080359143753</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>113.0177464882022</v>
       </c>
     </row>
     <row r="16">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>290.0688923743784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>289.2654207831596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,10 +23749,10 @@
         <v>413.4631744246258</v>
       </c>
       <c r="H17" t="n">
-        <v>320.6353766150897</v>
+        <v>227.9704273259875</v>
       </c>
       <c r="I17" t="n">
-        <v>139.5561335235496</v>
+        <v>81.5904173739317</v>
       </c>
       <c r="J17" t="n">
         <v>24.91528667358037</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>18.41179549609184</v>
+        <v>7.366133540830873</v>
       </c>
       <c r="S17" t="n">
         <v>167.1010256612668</v>
       </c>
       <c r="T17" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U17" t="n">
         <v>251.1984878605957</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23816,13 +23816,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>80.16851702142023</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>64.98013116629875</v>
       </c>
       <c r="F18" t="n">
-        <v>52.40426310428165</v>
+        <v>52.40426310428168</v>
       </c>
       <c r="G18" t="n">
         <v>136.3592641379443</v>
@@ -23855,25 +23855,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>84.56947841277972</v>
       </c>
       <c r="S18" t="n">
-        <v>153.4011028494393</v>
+        <v>60.73615356033713</v>
       </c>
       <c r="T18" t="n">
-        <v>114.5782109652797</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U18" t="n">
         <v>225.8766285924705</v>
       </c>
       <c r="V18" t="n">
-        <v>140.135637860323</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>159.0300338718174</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>290.0688923743784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>348.9103295920935</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4631744246258</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H20" t="n">
-        <v>320.6353766150897</v>
+        <v>227.9704273259875</v>
       </c>
       <c r="I20" t="n">
         <v>139.5561335235496</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R20" t="n">
-        <v>7.366133540830845</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S20" t="n">
         <v>167.1010256612668</v>
       </c>
       <c r="T20" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1984878605957</v>
+        <v>169.5792005267545</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>293.5729893669513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>80.04354969921354</v>
       </c>
       <c r="D21" t="n">
-        <v>65.82577823079755</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24101,13 +24101,13 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T21" t="n">
-        <v>196.197498299121</v>
+        <v>114.5782109652797</v>
       </c>
       <c r="U21" t="n">
-        <v>133.2116793033682</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V21" t="n">
-        <v>140.135637860323</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W21" t="n">
         <v>159.0300338718174</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>283.9090641127872</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>296.0958415427544</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>255.8582640699896</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24253,10 +24253,10 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R23" t="n">
-        <v>1.206305279239672</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S23" t="n">
-        <v>68.27624811057336</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T23" t="n">
         <v>215.0431621354273</v>
@@ -24265,16 +24265,16 @@
         <v>251.1984878605957</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>228.9274809194415</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>270.9063231277756</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>317.0608884278004</v>
       </c>
     </row>
     <row r="24">
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.86735313675172</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S24" t="n">
         <v>153.4011028494393</v>
@@ -24341,7 +24341,7 @@
         <v>196.197498299121</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8766285924705</v>
+        <v>138.8317645258198</v>
       </c>
       <c r="V24" t="n">
         <v>133.9758095987319</v>
@@ -24527,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>60.40020149798804</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>37.53448658725091</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H27" t="n">
         <v>102.729632124056</v>
@@ -24575,19 +24575,19 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T27" t="n">
-        <v>97.37272074842755</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U27" t="n">
         <v>127.0518510417771</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>133.9758095987319</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>152.8702056102262</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>118.7281211368268</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24682,19 +24682,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>266.4481142203142</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>255.8582640699896</v>
       </c>
       <c r="E29" t="n">
-        <v>312.7533198440086</v>
+        <v>283.1055925215684</v>
       </c>
       <c r="F29" t="n">
-        <v>308.051268191018</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>314.6383968739324</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H29" t="n">
         <v>320.6353766150897</v>
@@ -24736,7 +24736,7 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U29" t="n">
-        <v>152.3737103099023</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>300.5540504502159</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24770,10 +24770,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>46.24443484269048</v>
       </c>
       <c r="G30" t="n">
-        <v>136.3592641379443</v>
+        <v>37.53448658725091</v>
       </c>
       <c r="H30" t="n">
         <v>102.729632124056</v>
@@ -24803,25 +24803,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>84.56947841277972</v>
       </c>
       <c r="S30" t="n">
-        <v>153.4011028494393</v>
+        <v>54.57632529874593</v>
       </c>
       <c r="T30" t="n">
-        <v>97.37272074842755</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U30" t="n">
-        <v>127.0518510417771</v>
+        <v>153.1745033164424</v>
       </c>
       <c r="V30" t="n">
-        <v>133.9758095987319</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>164.6501190942689</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>283.9090641127872</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>319.7494127269777</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>255.8582640699896</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>337.6989955134583</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>314.6383968739324</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H32" t="n">
         <v>320.6353766150897</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>100.0310828299331</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>270.9063231277756</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>93.83105837383931</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25010,10 +25010,10 @@
         <v>46.24443484269048</v>
       </c>
       <c r="G33" t="n">
-        <v>37.53448658725091</v>
+        <v>133.8838784840733</v>
       </c>
       <c r="H33" t="n">
-        <v>3.90485457336257</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I33" t="n">
         <v>65.63472101605001</v>
@@ -25040,16 +25040,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R33" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>153.4011028494393</v>
+        <v>54.57632529874593</v>
       </c>
       <c r="T33" t="n">
-        <v>196.197498299121</v>
+        <v>97.37272074842755</v>
       </c>
       <c r="U33" t="n">
         <v>225.8766285924705</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>314.2110964526092</v>
       </c>
       <c r="G35" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H35" t="n">
         <v>320.6353766150897</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>7.366133540830845</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S35" t="n">
-        <v>74.43607637216454</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T35" t="n">
-        <v>157.0774459858094</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U35" t="n">
         <v>251.1984878605957</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>277.0661513893668</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>328.2722225064356</v>
       </c>
     </row>
     <row r="36">
@@ -25235,19 +25235,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>80.04354969921351</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>64.98013116629869</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884205</v>
       </c>
       <c r="H36" t="n">
         <v>102.729632124056</v>
@@ -25286,13 +25286,13 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T36" t="n">
-        <v>114.5782109652797</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U36" t="n">
         <v>225.8766285924705</v>
       </c>
       <c r="V36" t="n">
-        <v>140.135637860323</v>
+        <v>151.181299815584</v>
       </c>
       <c r="W36" t="n">
         <v>159.0300338718174</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>273.0637542868417</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>320.7982251355236</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H38" t="n">
         <v>320.6353766150897</v>
@@ -25438,19 +25438,19 @@
         <v>23.65357118422324</v>
       </c>
       <c r="R38" t="n">
-        <v>7.366133540830845</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S38" t="n">
-        <v>74.43607637216454</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T38" t="n">
-        <v>215.0431621354273</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U38" t="n">
-        <v>169.5792005267546</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25478,10 +25478,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>64.98013116629875</v>
       </c>
       <c r="F39" t="n">
-        <v>52.40426310428165</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.3592641379443</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R39" t="n">
         <v>84.56947841277972</v>
@@ -25523,13 +25523,13 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T39" t="n">
-        <v>103.5325490100187</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U39" t="n">
-        <v>158.6000800492519</v>
+        <v>144.2573412586293</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W39" t="n">
         <v>159.0300338718174</v>
@@ -25636,10 +25636,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>323.9646539226438</v>
       </c>
       <c r="F41" t="n">
-        <v>348.9103295920935</v>
+        <v>314.2110964526092</v>
       </c>
       <c r="G41" t="n">
         <v>320.7982251355236</v>
@@ -25681,10 +25681,10 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T41" t="n">
-        <v>122.3782128463251</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U41" t="n">
-        <v>158.5335385714935</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25718,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>63.44992505954268</v>
+        <v>52.40426310428168</v>
       </c>
       <c r="G42" t="n">
         <v>136.3592641379443</v>
@@ -25757,16 +25757,16 @@
         <v>84.56947841277972</v>
       </c>
       <c r="S42" t="n">
-        <v>60.7361535603371</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T42" t="n">
-        <v>103.5325490100187</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8766285924705</v>
+        <v>144.2573412586293</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W42" t="n">
         <v>159.0300338718174</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>314.2110964526092</v>
       </c>
       <c r="G44" t="n">
-        <v>320.7982251355236</v>
+        <v>331.8438870907846</v>
       </c>
       <c r="H44" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I44" t="n">
-        <v>46.89118423444742</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J44" t="n">
         <v>24.91528667358037</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R44" t="n">
         <v>100.0310828299331</v>
@@ -25921,10 +25921,10 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U44" t="n">
-        <v>193.2327717109778</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25955,10 +25955,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>63.44992505954265</v>
       </c>
       <c r="G45" t="n">
-        <v>60.98724471840325</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H45" t="n">
         <v>102.729632124056</v>
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S45" t="n">
         <v>153.4011028494393</v>
       </c>
       <c r="T45" t="n">
-        <v>103.5325490100187</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U45" t="n">
-        <v>133.2116793033682</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>983252.928749059</v>
+        <v>226375.677888611</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>983254.4178083498</v>
+        <v>228807.7657212707</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>983254.4178083498</v>
+        <v>228807.7657212707</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>328407.507629226</v>
+        <v>328407.5076292258</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>328407.507629226</v>
+        <v>328407.5076292258</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>328407.5076292258</v>
+        <v>328407.507629226</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>328407.507629226</v>
+        <v>328407.5076292258</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>330200.4750575563</v>
+        <v>330200.4750575564</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>330200.4750575564</v>
+        <v>330200.4750575563</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>328407.5076292258</v>
+        <v>328407.507629226</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>328407.507629226</v>
+        <v>328407.5076292258</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>328407.507629226</v>
+        <v>328407.5076292258</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>328407.507629226</v>
+        <v>328407.5076292258</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450657.5923433184</v>
+        <v>103755.5190322801</v>
       </c>
       <c r="C2" t="n">
-        <v>450658.2748288267</v>
+        <v>104870.2259555824</v>
       </c>
       <c r="D2" t="n">
-        <v>450658.2748288267</v>
+        <v>104870.2259555825</v>
       </c>
       <c r="E2" t="n">
+        <v>150520.107663395</v>
+      </c>
+      <c r="F2" t="n">
         <v>150520.1076633952</v>
-      </c>
-      <c r="F2" t="n">
-        <v>150520.1076633951</v>
       </c>
       <c r="G2" t="n">
         <v>150520.1076633951</v>
       </c>
       <c r="H2" t="n">
-        <v>150520.1076633951</v>
+        <v>150520.1076633952</v>
       </c>
       <c r="I2" t="n">
         <v>151341.8844013799</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1638.027691150586</v>
+        <v>1638.027691150594</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21557.42218053986</v>
+        <v>21557.42218053987</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360000.5125314189</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>358844.4244032895</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>358844.4244032895</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.14558386063672</v>
+        <v>67.14558386063669</v>
       </c>
       <c r="F4" t="n">
         <v>67.14558386063672</v>
@@ -26450,7 +26450,7 @@
         <v>69.43229877280183</v>
       </c>
       <c r="M4" t="n">
-        <v>67.14558386063672</v>
+        <v>67.14558386063673</v>
       </c>
       <c r="N4" t="n">
         <v>67.14558386063672</v>
@@ -26502,7 +26502,7 @@
         <v>15984.03722414097</v>
       </c>
       <c r="M5" t="n">
-        <v>15609.51966583622</v>
+        <v>15609.51966583623</v>
       </c>
       <c r="N5" t="n">
         <v>15609.51966583622</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254346.9210969599</v>
+        <v>-242787.862074637</v>
       </c>
       <c r="C6" t="n">
-        <v>47641.47594378926</v>
+        <v>59163.50710335954</v>
       </c>
       <c r="D6" t="n">
-        <v>51172.57065334669</v>
+        <v>62694.60181291708</v>
       </c>
       <c r="E6" t="n">
-        <v>-17193.40585024538</v>
+        <v>-4877.606796347126</v>
       </c>
       <c r="F6" t="n">
-        <v>121159.2212427001</v>
+        <v>133475.0202965985</v>
       </c>
       <c r="G6" t="n">
-        <v>121159.2212427001</v>
+        <v>133475.0202965984</v>
       </c>
       <c r="H6" t="n">
-        <v>121159.2212427</v>
+        <v>133475.0202965985</v>
       </c>
       <c r="I6" t="n">
-        <v>120003.5195044075</v>
+        <v>132285.7004190247</v>
       </c>
       <c r="J6" t="n">
-        <v>121641.5471955581</v>
+        <v>133923.7281101753</v>
       </c>
       <c r="K6" t="n">
-        <v>121641.5471955581</v>
+        <v>133923.7281101753</v>
       </c>
       <c r="L6" t="n">
-        <v>121641.5471955581</v>
+        <v>133923.7281101753</v>
       </c>
       <c r="M6" t="n">
-        <v>99601.79906216016</v>
+        <v>111917.5981160585</v>
       </c>
       <c r="N6" t="n">
-        <v>121159.2212427001</v>
+        <v>133475.0202965984</v>
       </c>
       <c r="O6" t="n">
-        <v>121159.2212427001</v>
+        <v>133475.0202965984</v>
       </c>
       <c r="P6" t="n">
-        <v>121159.2212427</v>
+        <v>133475.0202965984</v>
       </c>
     </row>
   </sheetData>
@@ -26804,10 +26804,10 @@
         <v>92.6649492891022</v>
       </c>
       <c r="G4" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H4" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="I4" t="n">
         <v>98.8247775506934</v>
@@ -26822,16 +26822,16 @@
         <v>98.8247775506934</v>
       </c>
       <c r="M4" t="n">
-        <v>92.66494928910222</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="N4" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O4" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="P4" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.159828261591173</v>
+        <v>6.159828261591201</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>86.50512102751102</v>
+        <v>86.50512102751105</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,76 +27378,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4671399690905</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.5094162483256</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.24567846819694</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>58.52525650912509</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.33124892954416</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.323491285356511</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.781580526956333</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16.09652847127751</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>48.58751046101381</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.14653687633538</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>135.80108207668</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0771084079325</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5358797316327</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2440429508748</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,34 +27457,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6639406644979</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6721659462977</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>76.12468037326957</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.63255053171127</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.10473742565402</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27499,34 +27499,34 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.205102146994051</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.23443014508365</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>103.4861490702065</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.0603357001177</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4255585092209</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8966731007964</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,76 +27536,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4212452503922</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1617183466295</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.3170164774018</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>86.71521999908967</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>62.8205136151649</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>50.1807526146867</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>49.61737280767913</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>40.50068772810077</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.92721197712441</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>68.82125337898731</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>103.7975391803443</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6760741181036</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.0876863536667</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5112709665425</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2879529505963</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,76 +27615,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>326.3074893360965</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>160.9084221286138</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>32.87119109810837</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>4.586202945486093</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>46.34579576917244</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>134.8218408634681</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>179.7218745449422</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.4676389752864</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2427958325407</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,34 +27694,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.6555998253092</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>105.5916109993956</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>75.83750674330533</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27736,34 +27736,34 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>102.9682853879423</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>158.905408270449</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>197.3919390740697</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8961243613761</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,76 +27773,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4142525710033</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.0995470698808</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>138.1067275372333</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>86.2208375662932</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>39.43061707215853</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.2119976362414</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>151.3616578248528</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>213.9658230228616</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.481393154608</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2875715317206</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,76 +27852,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>326.3074893360965</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>160.9084221286138</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679384</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>83.46310250126157</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>134.8218408634681</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>179.7218745449422</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.4676389752864</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2427958325407</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,34 +27931,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.6555998253092</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>105.5916109993956</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>75.83750674330534</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>61.84452414151258</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27973,34 +27973,34 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>52.16972933916271</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>102.9682853879423</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>158.905408270449</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>197.3919390740697</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8961243613761</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,76 +28010,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.4142525710033</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0995470698808</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>138.1067275372333</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>86.22083756629321</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>62.00809140979796</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>49.14113189899257</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>48.52123852856002</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>39.43061707215854</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>56.93882853040726</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97552059180407</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>103.2119976362414</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>151.3616578248528</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>213.9658230228616</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.481393154608</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2875715317206</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31284,7 +31284,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I5" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J5" t="n">
         <v>109.1233211798925</v>
@@ -31293,7 +31293,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L5" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M5" t="n">
         <v>225.7600302817866</v>
@@ -31357,10 +31357,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H6" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I6" t="n">
         <v>23.68487325669467</v>
@@ -31384,13 +31384,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R6" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S6" t="n">
         <v>12.77776283338877</v>
@@ -31399,7 +31399,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H7" t="n">
         <v>5.127625437558785</v>
@@ -31448,16 +31448,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K7" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L7" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M7" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N7" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O7" t="n">
         <v>81.51770992143554</v>
@@ -31466,7 +31466,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R7" t="n">
         <v>25.93173355231669</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.839563090509207</v>
+        <v>1.839563090509206</v>
       </c>
       <c r="H11" t="n">
-        <v>18.83942550067742</v>
+        <v>18.83942550067741</v>
       </c>
       <c r="I11" t="n">
-        <v>70.91975604685626</v>
+        <v>70.91975604685625</v>
       </c>
       <c r="J11" t="n">
         <v>156.1306178531059</v>
@@ -31779,13 +31779,13 @@
         <v>309.9456856660333</v>
       </c>
       <c r="P11" t="n">
-        <v>264.5314718690873</v>
+        <v>264.5314718690872</v>
       </c>
       <c r="Q11" t="n">
         <v>198.6521186902262</v>
       </c>
       <c r="R11" t="n">
-        <v>115.5544549841991</v>
+        <v>115.554454984199</v>
       </c>
       <c r="S11" t="n">
         <v>41.91904392497859</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9842530252663183</v>
+        <v>0.9842530252663182</v>
       </c>
       <c r="H12" t="n">
-        <v>9.505812112440497</v>
+        <v>9.505812112440495</v>
       </c>
       <c r="I12" t="n">
         <v>33.88765898395</v>
@@ -31843,10 +31843,10 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K12" t="n">
-        <v>158.9352790843423</v>
+        <v>152.6909941347885</v>
       </c>
       <c r="L12" t="n">
-        <v>153.489060191812</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M12" t="n">
         <v>234.7989832111205</v>
@@ -31858,7 +31858,7 @@
         <v>234.1788327264121</v>
       </c>
       <c r="P12" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>125.6390352953988</v>
@@ -31873,7 +31873,7 @@
         <v>3.967230395700641</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.06475348850436306</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.8251646731812818</v>
       </c>
       <c r="H13" t="n">
-        <v>7.336464094284494</v>
+        <v>7.336464094284493</v>
       </c>
       <c r="I13" t="n">
         <v>24.81495217166983</v>
       </c>
       <c r="J13" t="n">
-        <v>58.33914239391663</v>
+        <v>58.33914239391662</v>
       </c>
       <c r="K13" t="n">
-        <v>95.8691320296071</v>
+        <v>95.86913202960709</v>
       </c>
       <c r="L13" t="n">
         <v>122.6794824109699</v>
@@ -31937,19 +31937,19 @@
         <v>116.6332758056598</v>
       </c>
       <c r="P13" t="n">
-        <v>99.79991647276155</v>
+        <v>99.79991647276154</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.09628913338899</v>
+        <v>69.09628913338898</v>
       </c>
       <c r="R13" t="n">
-        <v>37.102404305042</v>
+        <v>37.10240430504199</v>
       </c>
       <c r="S13" t="n">
         <v>14.38036980444106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.52570360359275</v>
+        <v>3.525703603592749</v>
       </c>
       <c r="U13" t="n">
         <v>0.04500898217352452</v>
@@ -32007,7 +32007,7 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M14" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N14" t="n">
         <v>322.0780128856931</v>
@@ -32089,13 +32089,13 @@
         <v>234.7989832111205</v>
       </c>
       <c r="N15" t="n">
-        <v>217.7623764228817</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O15" t="n">
-        <v>234.1788327264121</v>
+        <v>173.959796357658</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>187.9491588335306</v>
       </c>
       <c r="Q15" t="n">
         <v>125.6390352953988</v>
@@ -32247,7 +32247,7 @@
         <v>323.011182516375</v>
       </c>
       <c r="N17" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O17" t="n">
         <v>309.9456856660333</v>
@@ -32317,13 +32317,13 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K18" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>213.7080965605662</v>
       </c>
       <c r="M18" t="n">
-        <v>174.5799468423664</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N18" t="n">
         <v>224.0066613724355</v>
@@ -32332,7 +32332,7 @@
         <v>234.1788327264121</v>
       </c>
       <c r="P18" t="n">
-        <v>187.9491588335306</v>
+        <v>148.8239625747597</v>
       </c>
       <c r="Q18" t="n">
         <v>125.6390352953988</v>
@@ -32481,10 +32481,10 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M20" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N20" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O20" t="n">
         <v>309.9456856660333</v>
@@ -32560,13 +32560,13 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M21" t="n">
-        <v>174.5799468423664</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N21" t="n">
         <v>224.0066613724355</v>
       </c>
       <c r="O21" t="n">
-        <v>234.1788327264121</v>
+        <v>173.959796357658</v>
       </c>
       <c r="P21" t="n">
         <v>187.9491588335306</v>
@@ -33274,13 +33274,13 @@
         <v>240.9588114727117</v>
       </c>
       <c r="N30" t="n">
-        <v>182.0182278384917</v>
+        <v>230.1664896340267</v>
       </c>
       <c r="O30" t="n">
         <v>234.1788327264121</v>
       </c>
       <c r="P30" t="n">
-        <v>187.9491588335306</v>
+        <v>139.8008970379955</v>
       </c>
       <c r="Q30" t="n">
         <v>125.6390352953988</v>
@@ -33502,16 +33502,16 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L33" t="n">
-        <v>186.6536748750144</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M33" t="n">
         <v>240.9588114727117</v>
       </c>
       <c r="N33" t="n">
-        <v>230.1664896340267</v>
+        <v>182.0182278384917</v>
       </c>
       <c r="O33" t="n">
         <v>234.1788327264121</v>
@@ -33745,10 +33745,10 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M36" t="n">
-        <v>174.5799468423664</v>
+        <v>234.7989832111206</v>
       </c>
       <c r="N36" t="n">
-        <v>224.0066613724355</v>
+        <v>163.7876250036815</v>
       </c>
       <c r="O36" t="n">
         <v>234.1788327264121</v>
@@ -33906,7 +33906,7 @@
         <v>323.011182516375</v>
       </c>
       <c r="N38" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O38" t="n">
         <v>309.9456856660333</v>
@@ -33976,16 +33976,16 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L39" t="n">
-        <v>174.5829003017953</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M39" t="n">
         <v>234.7989832111205</v>
       </c>
       <c r="N39" t="n">
-        <v>224.0066613724355</v>
+        <v>163.7876250036813</v>
       </c>
       <c r="O39" t="n">
         <v>234.1788327264121</v>
@@ -34140,10 +34140,10 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M41" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N41" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O41" t="n">
         <v>309.9456856660333</v>
@@ -34213,16 +34213,16 @@
         <v>92.99032639149897</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L42" t="n">
         <v>213.7080965605662</v>
       </c>
       <c r="M42" t="n">
-        <v>234.7989832111205</v>
+        <v>174.5799468423664</v>
       </c>
       <c r="N42" t="n">
-        <v>184.8814651136647</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O42" t="n">
         <v>234.1788327264121</v>
@@ -34377,10 +34377,10 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M44" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N44" t="n">
-        <v>322.0780128856932</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O44" t="n">
         <v>309.9456856660333</v>
@@ -34453,10 +34453,10 @@
         <v>158.9352790843423</v>
       </c>
       <c r="L45" t="n">
-        <v>213.7080965605662</v>
+        <v>153.489060191812</v>
       </c>
       <c r="M45" t="n">
-        <v>228.5546982615668</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N45" t="n">
         <v>224.0066613724355</v>
@@ -34465,7 +34465,7 @@
         <v>234.1788327264121</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>187.9491588335306</v>
       </c>
       <c r="Q45" t="n">
         <v>125.6390352953988</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>13.90947242938014</v>
+        <v>13.90947242938012</v>
       </c>
       <c r="L11" t="n">
         <v>54.53043743554463</v>
@@ -35424,10 +35424,10 @@
         <v>92.6649492891022</v>
       </c>
       <c r="O11" t="n">
-        <v>79.84747424434661</v>
+        <v>79.84747424434656</v>
       </c>
       <c r="P11" t="n">
-        <v>33.29847611381774</v>
+        <v>33.29847611381769</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>21.09384010998329</v>
+        <v>14.84955516042947</v>
       </c>
       <c r="L12" t="n">
-        <v>14.93468041193783</v>
+        <v>75.15371678069198</v>
       </c>
       <c r="M12" t="n">
         <v>92.6649492891022</v>
@@ -35503,10 +35503,10 @@
         <v>92.6649492891022</v>
       </c>
       <c r="O12" t="n">
-        <v>91.5825882819677</v>
+        <v>91.58258828196767</v>
       </c>
       <c r="P12" t="n">
-        <v>53.97475141920032</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>92.6649492891022</v>
       </c>
       <c r="N15" t="n">
-        <v>86.42066433954837</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O15" t="n">
-        <v>91.5825882819677</v>
+        <v>31.36355191321351</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M17" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N17" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O17" t="n">
         <v>79.84747424434661</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>21.09384010998329</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>75.15371678069201</v>
       </c>
       <c r="M18" t="n">
-        <v>32.44591292034811</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N18" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O18" t="n">
         <v>91.5825882819677</v>
       </c>
       <c r="P18" t="n">
-        <v>53.97475141920032</v>
+        <v>14.84955516042941</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M20" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N20" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O20" t="n">
         <v>79.84747424434661</v>
@@ -36208,13 +36208,13 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M21" t="n">
-        <v>32.44591292034811</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N21" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O21" t="n">
-        <v>91.5825882819677</v>
+        <v>31.36355191321351</v>
       </c>
       <c r="P21" t="n">
         <v>53.97475141920032</v>
@@ -36922,13 +36922,13 @@
         <v>98.8247775506934</v>
       </c>
       <c r="N30" t="n">
-        <v>50.67651575515835</v>
+        <v>98.8247775506934</v>
       </c>
       <c r="O30" t="n">
         <v>91.5825882819677</v>
       </c>
       <c r="P30" t="n">
-        <v>53.97475141920032</v>
+        <v>5.826489623665269</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L33" t="n">
-        <v>48.09929509514024</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M33" t="n">
         <v>98.8247775506934</v>
       </c>
       <c r="N33" t="n">
-        <v>98.8247775506934</v>
+        <v>50.67651575515835</v>
       </c>
       <c r="O33" t="n">
         <v>91.5825882819677</v>
@@ -37317,7 +37317,7 @@
         <v>92.66494928910222</v>
       </c>
       <c r="N35" t="n">
-        <v>92.66494928910222</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="O35" t="n">
         <v>79.84747424434661</v>
@@ -37393,10 +37393,10 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M36" t="n">
-        <v>32.44591292034811</v>
+        <v>92.66494928910225</v>
       </c>
       <c r="N36" t="n">
-        <v>92.66494928910222</v>
+        <v>32.44591292034817</v>
       </c>
       <c r="O36" t="n">
         <v>91.5825882819677</v>
@@ -37554,7 +37554,7 @@
         <v>92.66494928910222</v>
       </c>
       <c r="N38" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O38" t="n">
         <v>79.84747424434661</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L39" t="n">
-        <v>36.02852052192117</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M39" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N39" t="n">
-        <v>92.66494928910222</v>
+        <v>32.44591292034803</v>
       </c>
       <c r="O39" t="n">
         <v>91.5825882819677</v>
@@ -37788,10 +37788,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M41" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N41" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O41" t="n">
         <v>79.84747424434661</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L42" t="n">
         <v>75.15371678069201</v>
       </c>
       <c r="M42" t="n">
-        <v>92.66494928910222</v>
+        <v>32.44591292034803</v>
       </c>
       <c r="N42" t="n">
-        <v>53.5397530303314</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O42" t="n">
         <v>91.5825882819677</v>
@@ -38025,10 +38025,10 @@
         <v>54.53043743554463</v>
       </c>
       <c r="M44" t="n">
-        <v>92.6649492891023</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N44" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O44" t="n">
         <v>79.84747424434661</v>
@@ -38101,19 +38101,19 @@
         <v>21.09384010998329</v>
       </c>
       <c r="L45" t="n">
-        <v>75.15371678069201</v>
+        <v>14.93468041193783</v>
       </c>
       <c r="M45" t="n">
-        <v>86.42066433954845</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N45" t="n">
-        <v>92.66494928910222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O45" t="n">
         <v>91.5825882819677</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
